--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>GHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>135600</v>
+        <v>152800</v>
       </c>
       <c r="E8" s="3">
-        <v>111600</v>
+        <v>126700</v>
       </c>
       <c r="F8" s="3">
-        <v>92900</v>
+        <v>104000</v>
       </c>
       <c r="G8" s="3">
-        <v>91100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>90700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>88800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>7200</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>9500</v>
+        <v>7100</v>
       </c>
       <c r="G9" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>104400</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>83400</v>
+        <v>96900</v>
       </c>
       <c r="G10" s="3">
-        <v>79800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>81400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>77800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,27 +888,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,27 +921,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58800</v>
+        <v>82200</v>
       </c>
       <c r="E17" s="3">
-        <v>56100</v>
+        <v>56000</v>
       </c>
       <c r="F17" s="3">
-        <v>48100</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="3">
-        <v>49800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>47000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>48600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76800</v>
+        <v>70600</v>
       </c>
       <c r="E18" s="3">
-        <v>55600</v>
+        <v>70700</v>
       </c>
       <c r="F18" s="3">
-        <v>44800</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="3">
-        <v>41300</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>43700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>40300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>17400</v>
       </c>
       <c r="E20" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>6900</v>
+        <v>12100</v>
       </c>
       <c r="G20" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>84400</v>
+        <v>93600</v>
       </c>
       <c r="E21" s="3">
-        <v>71600</v>
+        <v>78100</v>
       </c>
       <c r="F21" s="3">
-        <v>56800</v>
+        <v>67600</v>
       </c>
       <c r="G21" s="3">
-        <v>53800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>55300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>52400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,26 +1113,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80700</v>
+        <v>87600</v>
       </c>
       <c r="E23" s="3">
-        <v>67800</v>
+        <v>74500</v>
       </c>
       <c r="F23" s="3">
-        <v>51700</v>
+        <v>63900</v>
       </c>
       <c r="G23" s="3">
-        <v>47800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>50400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>46600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23000</v>
+        <v>26500</v>
       </c>
       <c r="E24" s="3">
-        <v>26800</v>
+        <v>21400</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>25600</v>
       </c>
       <c r="G24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>11200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57700</v>
+        <v>61100</v>
       </c>
       <c r="E26" s="3">
-        <v>41000</v>
+        <v>53100</v>
       </c>
       <c r="F26" s="3">
-        <v>39600</v>
+        <v>38400</v>
       </c>
       <c r="G26" s="3">
-        <v>36300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>38700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>35400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56500</v>
+        <v>62000</v>
       </c>
       <c r="E27" s="3">
-        <v>40900</v>
+        <v>52000</v>
       </c>
       <c r="F27" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="G27" s="3">
-        <v>33800</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>33000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-17400</v>
       </c>
       <c r="E32" s="3">
-        <v>-12400</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>-6900</v>
+        <v>-12100</v>
       </c>
       <c r="G32" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>-6700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56500</v>
+        <v>62000</v>
       </c>
       <c r="E33" s="3">
-        <v>40900</v>
+        <v>52000</v>
       </c>
       <c r="F33" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="G33" s="3">
-        <v>33800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>33000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56500</v>
+        <v>62000</v>
       </c>
       <c r="E35" s="3">
-        <v>40900</v>
+        <v>52000</v>
       </c>
       <c r="F35" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="G35" s="3">
-        <v>33800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>33000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181400</v>
+        <v>44800</v>
       </c>
       <c r="E41" s="3">
-        <v>23200</v>
+        <v>177200</v>
       </c>
       <c r="F41" s="3">
-        <v>128700</v>
+        <v>22700</v>
       </c>
       <c r="G41" s="3">
-        <v>72600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>125700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>70900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,26 +1676,29 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>142500</v>
+        <v>90300</v>
       </c>
       <c r="E42" s="3">
-        <v>156300</v>
+        <v>139200</v>
       </c>
       <c r="F42" s="3">
-        <v>39200</v>
+        <v>152700</v>
       </c>
       <c r="G42" s="3">
-        <v>57200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>38300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>55900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28300</v>
+        <v>30000</v>
       </c>
       <c r="E43" s="3">
-        <v>9100</v>
+        <v>27600</v>
       </c>
       <c r="F43" s="3">
-        <v>26700</v>
+        <v>8900</v>
       </c>
       <c r="G43" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>16700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1660,7 +1755,7 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -1668,8 +1763,8 @@
       <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>300</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>11900</v>
       </c>
       <c r="E45" s="3">
-        <v>24100</v>
+        <v>8200</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>23500</v>
       </c>
       <c r="G45" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>34100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>351600</v>
+        <v>177300</v>
       </c>
       <c r="E46" s="3">
-        <v>213100</v>
+        <v>343500</v>
       </c>
       <c r="F46" s="3">
-        <v>229800</v>
+        <v>208200</v>
       </c>
       <c r="G46" s="3">
-        <v>162300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>224400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>158600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46500</v>
+        <v>151400</v>
       </c>
       <c r="E47" s="3">
-        <v>18000</v>
+        <v>45400</v>
       </c>
       <c r="F47" s="3">
-        <v>5100</v>
+        <v>17500</v>
       </c>
       <c r="G47" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,26 +1874,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>63800</v>
+        <v>86200</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>62300</v>
       </c>
       <c r="F48" s="3">
-        <v>15800</v>
+        <v>13500</v>
       </c>
       <c r="G48" s="3">
-        <v>20300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>19800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1800,27 +1907,30 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8600</v>
+        <v>83600</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>8400</v>
       </c>
       <c r="F49" s="3">
+        <v>900</v>
+      </c>
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23300</v>
+        <v>36400</v>
       </c>
       <c r="E52" s="3">
-        <v>6000</v>
+        <v>22700</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>5900</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>16900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>6200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>441900</v>
+        <v>534900</v>
       </c>
       <c r="E54" s="3">
-        <v>251900</v>
+        <v>431700</v>
       </c>
       <c r="F54" s="3">
-        <v>269100</v>
+        <v>246100</v>
       </c>
       <c r="G54" s="3">
-        <v>201900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>262900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>197200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>1100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,17 +2168,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2065,29 +2198,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153500</v>
+        <v>100900</v>
       </c>
       <c r="E59" s="3">
-        <v>94100</v>
+        <v>154800</v>
       </c>
       <c r="F59" s="3">
-        <v>69400</v>
+        <v>91900</v>
       </c>
       <c r="G59" s="3">
-        <v>51400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>67800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>50200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>102900</v>
+        <v>111400</v>
       </c>
       <c r="E60" s="3">
-        <v>95100</v>
+        <v>99500</v>
       </c>
       <c r="F60" s="3">
-        <v>70500</v>
+        <v>92900</v>
       </c>
       <c r="G60" s="3">
-        <v>52500</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>51300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,26 +2300,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100900</v>
+        <v>140700</v>
       </c>
       <c r="E62" s="3">
-        <v>51700</v>
+        <v>99600</v>
       </c>
       <c r="F62" s="3">
-        <v>51300</v>
+        <v>50500</v>
       </c>
       <c r="G62" s="3">
-        <v>37900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>50100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>37000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>205000</v>
+        <v>274100</v>
       </c>
       <c r="E66" s="3">
-        <v>146900</v>
+        <v>200300</v>
       </c>
       <c r="F66" s="3">
-        <v>121900</v>
+        <v>143500</v>
       </c>
       <c r="G66" s="3">
-        <v>90500</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>119100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>88400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36200</v>
+        <v>43300</v>
       </c>
       <c r="E72" s="3">
-        <v>32000</v>
+        <v>35400</v>
       </c>
       <c r="F72" s="3">
-        <v>79800</v>
+        <v>31300</v>
       </c>
       <c r="G72" s="3">
-        <v>44300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>78000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>43200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>236900</v>
+        <v>260900</v>
       </c>
       <c r="E76" s="3">
-        <v>105100</v>
+        <v>231400</v>
       </c>
       <c r="F76" s="3">
-        <v>147200</v>
+        <v>102600</v>
       </c>
       <c r="G76" s="3">
-        <v>111400</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>143800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>108800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56500</v>
+        <v>62000</v>
       </c>
       <c r="E81" s="3">
-        <v>40900</v>
+        <v>52000</v>
       </c>
       <c r="F81" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="G81" s="3">
-        <v>33800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>37200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>33000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="E83" s="3">
         <v>3600</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>5800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>79600</v>
+        <v>71900</v>
       </c>
       <c r="E89" s="3">
-        <v>68400</v>
+        <v>77700</v>
       </c>
       <c r="F89" s="3">
-        <v>63600</v>
+        <v>65700</v>
       </c>
       <c r="G89" s="3">
-        <v>51300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>62100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>50000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19900</v>
+        <v>-29900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2400</v>
+        <v>-19400</v>
       </c>
       <c r="F91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-1800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3241,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-170700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-26100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-106900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-26700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>95100</v>
+        <v>-29700</v>
       </c>
       <c r="E100" s="3">
-        <v>-66700</v>
+        <v>92800</v>
       </c>
       <c r="F100" s="3">
-        <v>-19100</v>
+        <v>-90300</v>
       </c>
       <c r="G100" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-18600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-7200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,27 +3454,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9500</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>158100</v>
+        <v>-129500</v>
       </c>
       <c r="E102" s="3">
-        <v>-105400</v>
+        <v>154300</v>
       </c>
       <c r="F102" s="3">
-        <v>56100</v>
+        <v>-129000</v>
       </c>
       <c r="G102" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>54700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>17500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>152800</v>
+        <v>158600</v>
       </c>
       <c r="E8" s="3">
-        <v>126700</v>
+        <v>131500</v>
       </c>
       <c r="F8" s="3">
-        <v>104000</v>
+        <v>107900</v>
       </c>
       <c r="G8" s="3">
-        <v>90700</v>
+        <v>94100</v>
       </c>
       <c r="H8" s="3">
-        <v>88800</v>
+        <v>92200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G9" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="H9" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>96900</v>
+        <v>100600</v>
       </c>
       <c r="G10" s="3">
-        <v>81400</v>
+        <v>84400</v>
       </c>
       <c r="H10" s="3">
-        <v>77800</v>
+        <v>80800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82200</v>
+        <v>85300</v>
       </c>
       <c r="E17" s="3">
-        <v>56000</v>
+        <v>58200</v>
       </c>
       <c r="F17" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G17" s="3">
-        <v>47000</v>
+        <v>48700</v>
       </c>
       <c r="H17" s="3">
-        <v>48600</v>
+        <v>50400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70600</v>
+        <v>73300</v>
       </c>
       <c r="E18" s="3">
-        <v>70700</v>
+        <v>73400</v>
       </c>
       <c r="F18" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="G18" s="3">
-        <v>43700</v>
+        <v>45400</v>
       </c>
       <c r="H18" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="G20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>93600</v>
+        <v>97100</v>
       </c>
       <c r="E21" s="3">
-        <v>78100</v>
+        <v>81100</v>
       </c>
       <c r="F21" s="3">
-        <v>67600</v>
+        <v>70100</v>
       </c>
       <c r="G21" s="3">
-        <v>55300</v>
+        <v>57400</v>
       </c>
       <c r="H21" s="3">
-        <v>52400</v>
+        <v>54400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87600</v>
+        <v>90900</v>
       </c>
       <c r="E23" s="3">
-        <v>74500</v>
+        <v>77300</v>
       </c>
       <c r="F23" s="3">
-        <v>63900</v>
+        <v>66300</v>
       </c>
       <c r="G23" s="3">
-        <v>50400</v>
+        <v>52300</v>
       </c>
       <c r="H23" s="3">
-        <v>46600</v>
+        <v>48400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F24" s="3">
         <v>26500</v>
       </c>
-      <c r="E24" s="3">
-        <v>21400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>25600</v>
-      </c>
       <c r="G24" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="H24" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61100</v>
+        <v>63400</v>
       </c>
       <c r="E26" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="F26" s="3">
-        <v>38400</v>
+        <v>39800</v>
       </c>
       <c r="G26" s="3">
-        <v>38700</v>
+        <v>40100</v>
       </c>
       <c r="H26" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="E27" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="F27" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="G27" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H27" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17400</v>
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="G32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="E33" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="F33" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="G33" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H33" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="E35" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="F35" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="G35" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H35" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44800</v>
+        <v>46500</v>
       </c>
       <c r="E41" s="3">
-        <v>177200</v>
+        <v>183600</v>
       </c>
       <c r="F41" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="G41" s="3">
-        <v>125700</v>
+        <v>130200</v>
       </c>
       <c r="H41" s="3">
-        <v>70900</v>
+        <v>73500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90300</v>
+        <v>93600</v>
       </c>
       <c r="E42" s="3">
-        <v>139200</v>
+        <v>144200</v>
       </c>
       <c r="F42" s="3">
-        <v>152700</v>
+        <v>158200</v>
       </c>
       <c r="G42" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="H42" s="3">
-        <v>55900</v>
+        <v>57900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="E43" s="3">
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="F43" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="G43" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="H43" s="3">
-        <v>16700</v>
+        <v>17300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="E45" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="G45" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="H45" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>177300</v>
+        <v>183700</v>
       </c>
       <c r="E46" s="3">
-        <v>343500</v>
+        <v>355900</v>
       </c>
       <c r="F46" s="3">
-        <v>208200</v>
+        <v>215700</v>
       </c>
       <c r="G46" s="3">
-        <v>224400</v>
+        <v>232600</v>
       </c>
       <c r="H46" s="3">
-        <v>158600</v>
+        <v>164300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>151400</v>
+        <v>156900</v>
       </c>
       <c r="E47" s="3">
-        <v>45400</v>
+        <v>47000</v>
       </c>
       <c r="F47" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>86200</v>
+        <v>89300</v>
       </c>
       <c r="E48" s="3">
-        <v>62300</v>
+        <v>64600</v>
       </c>
       <c r="F48" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G48" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="H48" s="3">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>83600</v>
+        <v>86600</v>
       </c>
       <c r="E49" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1100</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36400</v>
+        <v>37700</v>
       </c>
       <c r="E52" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G52" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>534900</v>
+        <v>554300</v>
       </c>
       <c r="E54" s="3">
-        <v>431700</v>
+        <v>447300</v>
       </c>
       <c r="F54" s="3">
-        <v>246100</v>
+        <v>255000</v>
       </c>
       <c r="G54" s="3">
-        <v>262900</v>
+        <v>272400</v>
       </c>
       <c r="H54" s="3">
-        <v>197200</v>
+        <v>204400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>1300</v>
       </c>
       <c r="F57" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="E58" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100900</v>
+        <v>104500</v>
       </c>
       <c r="E59" s="3">
-        <v>154800</v>
+        <v>160400</v>
       </c>
       <c r="F59" s="3">
-        <v>91900</v>
+        <v>95200</v>
       </c>
       <c r="G59" s="3">
-        <v>67800</v>
+        <v>70300</v>
       </c>
       <c r="H59" s="3">
-        <v>50200</v>
+        <v>52000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>111400</v>
+        <v>115500</v>
       </c>
       <c r="E60" s="3">
-        <v>99500</v>
+        <v>103100</v>
       </c>
       <c r="F60" s="3">
-        <v>92900</v>
+        <v>96300</v>
       </c>
       <c r="G60" s="3">
-        <v>68900</v>
+        <v>71400</v>
       </c>
       <c r="H60" s="3">
-        <v>51300</v>
+        <v>53100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>140700</v>
+        <v>145800</v>
       </c>
       <c r="E62" s="3">
-        <v>99600</v>
+        <v>103200</v>
       </c>
       <c r="F62" s="3">
-        <v>50500</v>
+        <v>52300</v>
       </c>
       <c r="G62" s="3">
-        <v>50100</v>
+        <v>51900</v>
       </c>
       <c r="H62" s="3">
-        <v>37000</v>
+        <v>38400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>274100</v>
+        <v>284000</v>
       </c>
       <c r="E66" s="3">
-        <v>200300</v>
+        <v>207500</v>
       </c>
       <c r="F66" s="3">
-        <v>143500</v>
+        <v>148700</v>
       </c>
       <c r="G66" s="3">
-        <v>119100</v>
+        <v>123400</v>
       </c>
       <c r="H66" s="3">
-        <v>88400</v>
+        <v>91600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43300</v>
+        <v>44800</v>
       </c>
       <c r="E72" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="F72" s="3">
-        <v>31300</v>
+        <v>32400</v>
       </c>
       <c r="G72" s="3">
-        <v>78000</v>
+        <v>80800</v>
       </c>
       <c r="H72" s="3">
-        <v>43200</v>
+        <v>44800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>260900</v>
+        <v>270300</v>
       </c>
       <c r="E76" s="3">
-        <v>231400</v>
+        <v>239800</v>
       </c>
       <c r="F76" s="3">
-        <v>102600</v>
+        <v>106300</v>
       </c>
       <c r="G76" s="3">
-        <v>143800</v>
+        <v>149000</v>
       </c>
       <c r="H76" s="3">
-        <v>108800</v>
+        <v>112700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>62000</v>
+        <v>64300</v>
       </c>
       <c r="E81" s="3">
-        <v>52000</v>
+        <v>54000</v>
       </c>
       <c r="F81" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="G81" s="3">
-        <v>37200</v>
+        <v>38600</v>
       </c>
       <c r="H81" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
-        <v>3500</v>
-      </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>71900</v>
+        <v>74600</v>
       </c>
       <c r="E89" s="3">
-        <v>77700</v>
+        <v>80600</v>
       </c>
       <c r="F89" s="3">
-        <v>65700</v>
+        <v>68200</v>
       </c>
       <c r="G89" s="3">
-        <v>62100</v>
+        <v>64400</v>
       </c>
       <c r="H89" s="3">
-        <v>50000</v>
+        <v>51900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29900</v>
+        <v>-31000</v>
       </c>
       <c r="E91" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
         <v>-800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170700</v>
+        <v>-177200</v>
       </c>
       <c r="E94" s="3">
-        <v>-25400</v>
+        <v>-26400</v>
       </c>
       <c r="F94" s="3">
-        <v>-104300</v>
+        <v>-108200</v>
       </c>
       <c r="G94" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="H94" s="3">
-        <v>-26100</v>
+        <v>-27100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-33000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-29100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-84100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-29700</v>
+        <v>-30800</v>
       </c>
       <c r="E100" s="3">
-        <v>92800</v>
+        <v>96300</v>
       </c>
       <c r="F100" s="3">
-        <v>-90300</v>
+        <v>-93700</v>
       </c>
       <c r="G100" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3467,7 +3467,7 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-129500</v>
+        <v>-134400</v>
       </c>
       <c r="E102" s="3">
-        <v>154300</v>
+        <v>160100</v>
       </c>
       <c r="F102" s="3">
-        <v>-129000</v>
+        <v>-133900</v>
       </c>
       <c r="G102" s="3">
-        <v>54700</v>
+        <v>56800</v>
       </c>
       <c r="H102" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>158600</v>
+        <v>166100</v>
       </c>
       <c r="E8" s="3">
-        <v>131500</v>
+        <v>137800</v>
       </c>
       <c r="F8" s="3">
-        <v>107900</v>
+        <v>113100</v>
       </c>
       <c r="G8" s="3">
-        <v>94100</v>
+        <v>98500</v>
       </c>
       <c r="H8" s="3">
-        <v>92200</v>
+        <v>96600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="G9" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="H9" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>100600</v>
+        <v>105400</v>
       </c>
       <c r="G10" s="3">
-        <v>84400</v>
+        <v>88400</v>
       </c>
       <c r="H10" s="3">
-        <v>80800</v>
+        <v>84600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85300</v>
+        <v>89300</v>
       </c>
       <c r="E17" s="3">
-        <v>58200</v>
+        <v>60900</v>
       </c>
       <c r="F17" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="G17" s="3">
-        <v>48700</v>
+        <v>51000</v>
       </c>
       <c r="H17" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>73300</v>
+        <v>76800</v>
       </c>
       <c r="E18" s="3">
-        <v>73400</v>
+        <v>76800</v>
       </c>
       <c r="F18" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="G18" s="3">
-        <v>45400</v>
+        <v>47500</v>
       </c>
       <c r="H18" s="3">
-        <v>41800</v>
+        <v>43800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="G20" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H20" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97100</v>
+        <v>101800</v>
       </c>
       <c r="E21" s="3">
-        <v>81100</v>
+        <v>84900</v>
       </c>
       <c r="F21" s="3">
-        <v>70100</v>
+        <v>73500</v>
       </c>
       <c r="G21" s="3">
-        <v>57400</v>
+        <v>60200</v>
       </c>
       <c r="H21" s="3">
-        <v>54400</v>
+        <v>57000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>90900</v>
+        <v>95200</v>
       </c>
       <c r="E23" s="3">
-        <v>77300</v>
+        <v>81000</v>
       </c>
       <c r="F23" s="3">
-        <v>66300</v>
+        <v>69500</v>
       </c>
       <c r="G23" s="3">
-        <v>52300</v>
+        <v>54800</v>
       </c>
       <c r="H23" s="3">
-        <v>48400</v>
+        <v>50600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>23200</v>
       </c>
       <c r="F24" s="3">
-        <v>26500</v>
+        <v>27800</v>
       </c>
       <c r="G24" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H24" s="3">
         <v>12200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63400</v>
+        <v>66400</v>
       </c>
       <c r="E26" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="F26" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="G26" s="3">
-        <v>40100</v>
+        <v>42000</v>
       </c>
       <c r="H26" s="3">
-        <v>36700</v>
+        <v>38500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="E27" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="F27" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="G27" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="H27" s="3">
-        <v>34200</v>
+        <v>35900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>-18900</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>-12600</v>
+        <v>-13200</v>
       </c>
       <c r="G32" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="H32" s="3">
-        <v>-6600</v>
+        <v>-6900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="E33" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="F33" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="G33" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="H33" s="3">
-        <v>34200</v>
+        <v>35900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="E35" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="F35" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="G35" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="H35" s="3">
-        <v>34200</v>
+        <v>35900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46500</v>
+        <v>48700</v>
       </c>
       <c r="E41" s="3">
-        <v>183600</v>
+        <v>192300</v>
       </c>
       <c r="F41" s="3">
-        <v>23500</v>
+        <v>24600</v>
       </c>
       <c r="G41" s="3">
-        <v>130200</v>
+        <v>136400</v>
       </c>
       <c r="H41" s="3">
-        <v>73500</v>
+        <v>77000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93600</v>
+        <v>98000</v>
       </c>
       <c r="E42" s="3">
-        <v>144200</v>
+        <v>151100</v>
       </c>
       <c r="F42" s="3">
-        <v>158200</v>
+        <v>165800</v>
       </c>
       <c r="G42" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="H42" s="3">
-        <v>57900</v>
+        <v>60600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="E43" s="3">
-        <v>28600</v>
+        <v>30000</v>
       </c>
       <c r="F43" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="G43" s="3">
-        <v>27000</v>
+        <v>28300</v>
       </c>
       <c r="H43" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1758,7 +1758,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F45" s="3">
-        <v>24400</v>
+        <v>25500</v>
       </c>
       <c r="G45" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>183700</v>
+        <v>192500</v>
       </c>
       <c r="E46" s="3">
-        <v>355900</v>
+        <v>372800</v>
       </c>
       <c r="F46" s="3">
-        <v>215700</v>
+        <v>226000</v>
       </c>
       <c r="G46" s="3">
-        <v>232600</v>
+        <v>243600</v>
       </c>
       <c r="H46" s="3">
-        <v>164300</v>
+        <v>172100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>156900</v>
+        <v>164300</v>
       </c>
       <c r="E47" s="3">
-        <v>47000</v>
+        <v>49300</v>
       </c>
       <c r="F47" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H47" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89300</v>
+        <v>93500</v>
       </c>
       <c r="E48" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="F48" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="G48" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>86600</v>
+        <v>90700</v>
       </c>
       <c r="E49" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37700</v>
+        <v>39500</v>
       </c>
       <c r="E52" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="F52" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>17500</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>554300</v>
+        <v>580600</v>
       </c>
       <c r="E54" s="3">
-        <v>447300</v>
+        <v>468500</v>
       </c>
       <c r="F54" s="3">
-        <v>255000</v>
+        <v>267100</v>
       </c>
       <c r="G54" s="3">
-        <v>272400</v>
+        <v>285300</v>
       </c>
       <c r="H54" s="3">
-        <v>204400</v>
+        <v>214100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2178,10 +2178,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="E58" s="3">
-        <v>17400</v>
+        <v>18300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104500</v>
+        <v>109500</v>
       </c>
       <c r="E59" s="3">
-        <v>160400</v>
+        <v>168000</v>
       </c>
       <c r="F59" s="3">
-        <v>95200</v>
+        <v>99800</v>
       </c>
       <c r="G59" s="3">
-        <v>70300</v>
+        <v>73600</v>
       </c>
       <c r="H59" s="3">
-        <v>52000</v>
+        <v>54500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>115500</v>
+        <v>120900</v>
       </c>
       <c r="E60" s="3">
-        <v>103100</v>
+        <v>108000</v>
       </c>
       <c r="F60" s="3">
-        <v>96300</v>
+        <v>100900</v>
       </c>
       <c r="G60" s="3">
-        <v>71400</v>
+        <v>74800</v>
       </c>
       <c r="H60" s="3">
-        <v>53100</v>
+        <v>55600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145800</v>
+        <v>152700</v>
       </c>
       <c r="E62" s="3">
-        <v>103200</v>
+        <v>108100</v>
       </c>
       <c r="F62" s="3">
-        <v>52300</v>
+        <v>54800</v>
       </c>
       <c r="G62" s="3">
-        <v>51900</v>
+        <v>54400</v>
       </c>
       <c r="H62" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>284000</v>
+        <v>297400</v>
       </c>
       <c r="E66" s="3">
-        <v>207500</v>
+        <v>217400</v>
       </c>
       <c r="F66" s="3">
-        <v>148700</v>
+        <v>155700</v>
       </c>
       <c r="G66" s="3">
-        <v>123400</v>
+        <v>129200</v>
       </c>
       <c r="H66" s="3">
-        <v>91600</v>
+        <v>96000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44800</v>
+        <v>47000</v>
       </c>
       <c r="E72" s="3">
-        <v>36700</v>
+        <v>38400</v>
       </c>
       <c r="F72" s="3">
-        <v>32400</v>
+        <v>33900</v>
       </c>
       <c r="G72" s="3">
-        <v>80800</v>
+        <v>84600</v>
       </c>
       <c r="H72" s="3">
-        <v>44800</v>
+        <v>46900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>270300</v>
+        <v>283100</v>
       </c>
       <c r="E76" s="3">
-        <v>239800</v>
+        <v>251100</v>
       </c>
       <c r="F76" s="3">
-        <v>106300</v>
+        <v>111400</v>
       </c>
       <c r="G76" s="3">
-        <v>149000</v>
+        <v>156100</v>
       </c>
       <c r="H76" s="3">
-        <v>112700</v>
+        <v>118100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64300</v>
+        <v>67300</v>
       </c>
       <c r="E81" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="F81" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="G81" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="H81" s="3">
-        <v>34200</v>
+        <v>35900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E83" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="H83" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>74600</v>
+        <v>78200</v>
       </c>
       <c r="E89" s="3">
-        <v>80600</v>
+        <v>84400</v>
       </c>
       <c r="F89" s="3">
-        <v>68200</v>
+        <v>71400</v>
       </c>
       <c r="G89" s="3">
-        <v>64400</v>
+        <v>67500</v>
       </c>
       <c r="H89" s="3">
-        <v>51900</v>
+        <v>54400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31000</v>
+        <v>-32500</v>
       </c>
       <c r="E91" s="3">
-        <v>-20100</v>
+        <v>-21100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="G91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177200</v>
+        <v>-185600</v>
       </c>
       <c r="E94" s="3">
-        <v>-26400</v>
+        <v>-27600</v>
       </c>
       <c r="F94" s="3">
-        <v>-108200</v>
+        <v>-113300</v>
       </c>
       <c r="G94" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="H94" s="3">
-        <v>-27100</v>
+        <v>-28400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33000</v>
+        <v>-34500</v>
       </c>
       <c r="E96" s="3">
-        <v>-29100</v>
+        <v>-30500</v>
       </c>
       <c r="F96" s="3">
-        <v>-84100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30800</v>
+        <v>-32300</v>
       </c>
       <c r="E100" s="3">
-        <v>96300</v>
+        <v>100900</v>
       </c>
       <c r="F100" s="3">
-        <v>-93700</v>
+        <v>-98100</v>
       </c>
       <c r="G100" s="3">
-        <v>-19300</v>
+        <v>-20200</v>
       </c>
       <c r="H100" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-134400</v>
+        <v>-140700</v>
       </c>
       <c r="E102" s="3">
-        <v>160100</v>
+        <v>167700</v>
       </c>
       <c r="F102" s="3">
-        <v>-133900</v>
+        <v>-140300</v>
       </c>
       <c r="G102" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="H102" s="3">
-        <v>18100</v>
+        <v>19000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>166100</v>
+        <v>166800</v>
       </c>
       <c r="E8" s="3">
-        <v>137800</v>
+        <v>138400</v>
       </c>
       <c r="F8" s="3">
-        <v>113100</v>
+        <v>113500</v>
       </c>
       <c r="G8" s="3">
-        <v>98500</v>
+        <v>99000</v>
       </c>
       <c r="H8" s="3">
-        <v>96600</v>
+        <v>97000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -760,10 +760,10 @@
         <v>7700</v>
       </c>
       <c r="G9" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="H9" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -790,13 +790,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="3">
-        <v>105400</v>
+        <v>105800</v>
       </c>
       <c r="G10" s="3">
-        <v>88400</v>
+        <v>88800</v>
       </c>
       <c r="H10" s="3">
-        <v>84600</v>
+        <v>85000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="E17" s="3">
-        <v>60900</v>
+        <v>61200</v>
       </c>
       <c r="F17" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="G17" s="3">
-        <v>51000</v>
+        <v>51300</v>
       </c>
       <c r="H17" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76800</v>
+        <v>77100</v>
       </c>
       <c r="E18" s="3">
-        <v>76800</v>
+        <v>77200</v>
       </c>
       <c r="F18" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="G18" s="3">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="H18" s="3">
-        <v>43800</v>
+        <v>44000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>101800</v>
+        <v>102200</v>
       </c>
       <c r="E21" s="3">
-        <v>84900</v>
+        <v>85300</v>
       </c>
       <c r="F21" s="3">
-        <v>73500</v>
+        <v>73800</v>
       </c>
       <c r="G21" s="3">
-        <v>60200</v>
+        <v>60400</v>
       </c>
       <c r="H21" s="3">
-        <v>57000</v>
+        <v>57300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95200</v>
+        <v>95700</v>
       </c>
       <c r="E23" s="3">
-        <v>81000</v>
+        <v>81300</v>
       </c>
       <c r="F23" s="3">
-        <v>69500</v>
+        <v>69800</v>
       </c>
       <c r="G23" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="H23" s="3">
-        <v>50600</v>
+        <v>50900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,13 +1189,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="E24" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="F24" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="G24" s="3">
         <v>12800</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>66400</v>
+        <v>66700</v>
       </c>
       <c r="E26" s="3">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="F26" s="3">
-        <v>41700</v>
+        <v>41900</v>
       </c>
       <c r="G26" s="3">
-        <v>42000</v>
+        <v>42200</v>
       </c>
       <c r="H26" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E27" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F27" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="G27" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="H27" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E33" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F33" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="G33" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="H33" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E35" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F35" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="G35" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="H35" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48700</v>
+        <v>48900</v>
       </c>
       <c r="E41" s="3">
-        <v>192300</v>
+        <v>193100</v>
       </c>
       <c r="F41" s="3">
-        <v>24600</v>
+        <v>24700</v>
       </c>
       <c r="G41" s="3">
-        <v>136400</v>
+        <v>137000</v>
       </c>
       <c r="H41" s="3">
-        <v>77000</v>
+        <v>77300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>98000</v>
+        <v>98400</v>
       </c>
       <c r="E42" s="3">
-        <v>151100</v>
+        <v>151700</v>
       </c>
       <c r="F42" s="3">
-        <v>165800</v>
+        <v>166500</v>
       </c>
       <c r="G42" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="H42" s="3">
-        <v>60600</v>
+        <v>60900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="E43" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="F43" s="3">
         <v>9700</v>
       </c>
       <c r="G43" s="3">
-        <v>28300</v>
+        <v>28400</v>
       </c>
       <c r="H43" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="E45" s="3">
         <v>8900</v>
       </c>
       <c r="F45" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="G45" s="3">
-        <v>37000</v>
+        <v>37200</v>
       </c>
       <c r="H45" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>192500</v>
+        <v>193300</v>
       </c>
       <c r="E46" s="3">
-        <v>372800</v>
+        <v>374400</v>
       </c>
       <c r="F46" s="3">
-        <v>226000</v>
+        <v>226900</v>
       </c>
       <c r="G46" s="3">
-        <v>243600</v>
+        <v>244700</v>
       </c>
       <c r="H46" s="3">
-        <v>172100</v>
+        <v>172900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>164300</v>
+        <v>165000</v>
       </c>
       <c r="E47" s="3">
-        <v>49300</v>
+        <v>49500</v>
       </c>
       <c r="F47" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="G47" s="3">
         <v>5400</v>
       </c>
       <c r="H47" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="E48" s="3">
-        <v>67700</v>
+        <v>68000</v>
       </c>
       <c r="F48" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G48" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="H48" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>90700</v>
+        <v>91100</v>
       </c>
       <c r="E49" s="3">
         <v>9200</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39500</v>
+        <v>39700</v>
       </c>
       <c r="E52" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="F52" s="3">
         <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="H52" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>580600</v>
+        <v>583100</v>
       </c>
       <c r="E54" s="3">
-        <v>468500</v>
+        <v>470500</v>
       </c>
       <c r="F54" s="3">
-        <v>267100</v>
+        <v>268300</v>
       </c>
       <c r="G54" s="3">
-        <v>285300</v>
+        <v>286600</v>
       </c>
       <c r="H54" s="3">
-        <v>214100</v>
+        <v>215000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="E58" s="3">
         <v>18300</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="E59" s="3">
-        <v>168000</v>
+        <v>168700</v>
       </c>
       <c r="F59" s="3">
-        <v>99800</v>
+        <v>100200</v>
       </c>
       <c r="G59" s="3">
-        <v>73600</v>
+        <v>73900</v>
       </c>
       <c r="H59" s="3">
-        <v>54500</v>
+        <v>54700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>120900</v>
+        <v>121500</v>
       </c>
       <c r="E60" s="3">
-        <v>108000</v>
+        <v>108500</v>
       </c>
       <c r="F60" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="G60" s="3">
-        <v>74800</v>
+        <v>75100</v>
       </c>
       <c r="H60" s="3">
-        <v>55600</v>
+        <v>55900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>152700</v>
+        <v>153300</v>
       </c>
       <c r="E62" s="3">
-        <v>108100</v>
+        <v>108500</v>
       </c>
       <c r="F62" s="3">
-        <v>54800</v>
+        <v>55100</v>
       </c>
       <c r="G62" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="H62" s="3">
-        <v>40200</v>
+        <v>40400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>297400</v>
+        <v>298700</v>
       </c>
       <c r="E66" s="3">
-        <v>217400</v>
+        <v>218300</v>
       </c>
       <c r="F66" s="3">
-        <v>155700</v>
+        <v>156400</v>
       </c>
       <c r="G66" s="3">
-        <v>129200</v>
+        <v>129800</v>
       </c>
       <c r="H66" s="3">
-        <v>96000</v>
+        <v>96400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="E72" s="3">
-        <v>38400</v>
+        <v>38600</v>
       </c>
       <c r="F72" s="3">
-        <v>33900</v>
+        <v>34100</v>
       </c>
       <c r="G72" s="3">
-        <v>84600</v>
+        <v>85000</v>
       </c>
       <c r="H72" s="3">
-        <v>46900</v>
+        <v>47100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>283100</v>
+        <v>284300</v>
       </c>
       <c r="E76" s="3">
-        <v>251100</v>
+        <v>252200</v>
       </c>
       <c r="F76" s="3">
-        <v>111400</v>
+        <v>111900</v>
       </c>
       <c r="G76" s="3">
-        <v>156100</v>
+        <v>156800</v>
       </c>
       <c r="H76" s="3">
-        <v>118100</v>
+        <v>118600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E81" s="3">
-        <v>56500</v>
+        <v>56800</v>
       </c>
       <c r="F81" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="G81" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="H81" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,7 +2906,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
         <v>3900</v>
@@ -2918,7 +2918,7 @@
         <v>5400</v>
       </c>
       <c r="H83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78200</v>
+        <v>78500</v>
       </c>
       <c r="E89" s="3">
-        <v>84400</v>
+        <v>84800</v>
       </c>
       <c r="F89" s="3">
-        <v>71400</v>
+        <v>71700</v>
       </c>
       <c r="G89" s="3">
-        <v>67500</v>
+        <v>67800</v>
       </c>
       <c r="H89" s="3">
-        <v>54400</v>
+        <v>54600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21100</v>
+        <v>-21200</v>
       </c>
       <c r="F91" s="3">
         <v>-2500</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-185600</v>
+        <v>-186400</v>
       </c>
       <c r="E94" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="F94" s="3">
-        <v>-113300</v>
+        <v>-113800</v>
       </c>
       <c r="G94" s="3">
         <v>11300</v>
       </c>
       <c r="H94" s="3">
-        <v>-28400</v>
+        <v>-28500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,10 +3299,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34500</v>
+        <v>-34700</v>
       </c>
       <c r="E96" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="E100" s="3">
-        <v>100900</v>
+        <v>101300</v>
       </c>
       <c r="F100" s="3">
-        <v>-98100</v>
+        <v>-98600</v>
       </c>
       <c r="G100" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="H100" s="3">
         <v>-7800</v>
@@ -3467,7 +3467,7 @@
         <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-140700</v>
+        <v>-141300</v>
       </c>
       <c r="E102" s="3">
-        <v>167700</v>
+        <v>168400</v>
       </c>
       <c r="F102" s="3">
-        <v>-140300</v>
+        <v>-140900</v>
       </c>
       <c r="G102" s="3">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="H102" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>GHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,30 +711,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>166800</v>
+        <v>145100</v>
       </c>
       <c r="E8" s="3">
-        <v>138400</v>
+        <v>170300</v>
       </c>
       <c r="F8" s="3">
-        <v>113500</v>
+        <v>141300</v>
       </c>
       <c r="G8" s="3">
+        <v>115900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>101100</v>
+      </c>
+      <c r="I8" s="3">
         <v>99000</v>
       </c>
-      <c r="H8" s="3">
-        <v>97000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,9 +747,12 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -756,17 +762,17 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>7700</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>10200</v>
+        <v>7900</v>
       </c>
       <c r="H9" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,17 +798,17 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>105800</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>88800</v>
+        <v>108100</v>
       </c>
       <c r="H10" s="3">
-        <v>85000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>90700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>86800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,18 +922,18 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,30 +943,33 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5800</v>
       </c>
       <c r="F15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>89700</v>
+        <v>95300</v>
       </c>
       <c r="E17" s="3">
-        <v>61200</v>
+        <v>91600</v>
       </c>
       <c r="F17" s="3">
-        <v>56800</v>
+        <v>62500</v>
       </c>
       <c r="G17" s="3">
-        <v>51300</v>
+        <v>58000</v>
       </c>
       <c r="H17" s="3">
-        <v>53000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>52300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>54100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77100</v>
+        <v>49800</v>
       </c>
       <c r="E18" s="3">
-        <v>77200</v>
+        <v>78700</v>
       </c>
       <c r="F18" s="3">
-        <v>56800</v>
+        <v>78800</v>
       </c>
       <c r="G18" s="3">
-        <v>47700</v>
+        <v>58000</v>
       </c>
       <c r="H18" s="3">
-        <v>44000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>48700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18900</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>19400</v>
       </c>
       <c r="F20" s="3">
-        <v>13200</v>
+        <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>7300</v>
+        <v>13500</v>
       </c>
       <c r="H20" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>102200</v>
+        <v>66100</v>
       </c>
       <c r="E21" s="3">
-        <v>85300</v>
+        <v>104400</v>
       </c>
       <c r="F21" s="3">
-        <v>73800</v>
+        <v>87100</v>
       </c>
       <c r="G21" s="3">
-        <v>60400</v>
+        <v>75400</v>
       </c>
       <c r="H21" s="3">
-        <v>57300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>61700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>58400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,29 +1152,32 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95700</v>
+        <v>55300</v>
       </c>
       <c r="E23" s="3">
-        <v>81300</v>
+        <v>97700</v>
       </c>
       <c r="F23" s="3">
-        <v>69800</v>
+        <v>83000</v>
       </c>
       <c r="G23" s="3">
-        <v>55000</v>
+        <v>71200</v>
       </c>
       <c r="H23" s="3">
-        <v>50900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>56200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>51900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29000</v>
+        <v>17200</v>
       </c>
       <c r="E24" s="3">
-        <v>23300</v>
+        <v>29600</v>
       </c>
       <c r="F24" s="3">
-        <v>27900</v>
+        <v>23800</v>
       </c>
       <c r="G24" s="3">
-        <v>12800</v>
+        <v>28500</v>
       </c>
       <c r="H24" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>66700</v>
+        <v>38000</v>
       </c>
       <c r="E26" s="3">
-        <v>58000</v>
+        <v>68100</v>
       </c>
       <c r="F26" s="3">
-        <v>41900</v>
+        <v>59200</v>
       </c>
       <c r="G26" s="3">
-        <v>42200</v>
+        <v>42800</v>
       </c>
       <c r="H26" s="3">
-        <v>38600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>43100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>39500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67600</v>
+        <v>40800</v>
       </c>
       <c r="E27" s="3">
-        <v>56800</v>
+        <v>69100</v>
       </c>
       <c r="F27" s="3">
-        <v>41800</v>
+        <v>58000</v>
       </c>
       <c r="G27" s="3">
-        <v>40600</v>
+        <v>42700</v>
       </c>
       <c r="H27" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>36800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18900</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>-19400</v>
       </c>
       <c r="F32" s="3">
-        <v>-13200</v>
+        <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-7300</v>
+        <v>-13500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67600</v>
+        <v>40800</v>
       </c>
       <c r="E33" s="3">
-        <v>56800</v>
+        <v>69100</v>
       </c>
       <c r="F33" s="3">
-        <v>41800</v>
+        <v>58000</v>
       </c>
       <c r="G33" s="3">
-        <v>40600</v>
+        <v>42700</v>
       </c>
       <c r="H33" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>36800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67600</v>
+        <v>40800</v>
       </c>
       <c r="E35" s="3">
-        <v>56800</v>
+        <v>69100</v>
       </c>
       <c r="F35" s="3">
-        <v>41800</v>
+        <v>58000</v>
       </c>
       <c r="G35" s="3">
-        <v>40600</v>
+        <v>42700</v>
       </c>
       <c r="H35" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>36800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48900</v>
+        <v>95400</v>
       </c>
       <c r="E41" s="3">
-        <v>193100</v>
+        <v>49900</v>
       </c>
       <c r="F41" s="3">
-        <v>24700</v>
+        <v>197200</v>
       </c>
       <c r="G41" s="3">
-        <v>137000</v>
+        <v>25300</v>
       </c>
       <c r="H41" s="3">
-        <v>77300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>139900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>78900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,29 +1765,32 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>98400</v>
+        <v>84900</v>
       </c>
       <c r="E42" s="3">
-        <v>151700</v>
+        <v>100500</v>
       </c>
       <c r="F42" s="3">
-        <v>166500</v>
+        <v>155000</v>
       </c>
       <c r="G42" s="3">
-        <v>41800</v>
+        <v>170000</v>
       </c>
       <c r="H42" s="3">
-        <v>60900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>42700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>62200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32700</v>
+        <v>52000</v>
       </c>
       <c r="E43" s="3">
-        <v>30100</v>
+        <v>33300</v>
       </c>
       <c r="F43" s="3">
-        <v>9700</v>
+        <v>30800</v>
       </c>
       <c r="G43" s="3">
-        <v>28400</v>
+        <v>9900</v>
       </c>
       <c r="H43" s="3">
-        <v>18200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>18600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,14 +1837,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -1761,13 +1856,13 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>300</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13000</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>8900</v>
+        <v>13200</v>
       </c>
       <c r="F45" s="3">
-        <v>25600</v>
+        <v>9100</v>
       </c>
       <c r="G45" s="3">
-        <v>37200</v>
+        <v>26200</v>
       </c>
       <c r="H45" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>38000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>16500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>193300</v>
+        <v>247200</v>
       </c>
       <c r="E46" s="3">
-        <v>374400</v>
+        <v>197400</v>
       </c>
       <c r="F46" s="3">
-        <v>226900</v>
+        <v>382300</v>
       </c>
       <c r="G46" s="3">
-        <v>244700</v>
+        <v>231700</v>
       </c>
       <c r="H46" s="3">
-        <v>172900</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>249800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>176500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>165000</v>
+        <v>162100</v>
       </c>
       <c r="E47" s="3">
-        <v>49500</v>
+        <v>168500</v>
       </c>
       <c r="F47" s="3">
-        <v>19100</v>
+        <v>66700</v>
       </c>
       <c r="G47" s="3">
-        <v>5400</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>12700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>93900</v>
+        <v>104300</v>
       </c>
       <c r="E48" s="3">
-        <v>68000</v>
+        <v>95900</v>
       </c>
       <c r="F48" s="3">
-        <v>14800</v>
+        <v>69400</v>
       </c>
       <c r="G48" s="3">
-        <v>16900</v>
+        <v>15100</v>
       </c>
       <c r="H48" s="3">
-        <v>21600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>22100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,30 +2017,33 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91100</v>
+        <v>92300</v>
       </c>
       <c r="E49" s="3">
-        <v>9200</v>
+        <v>93000</v>
       </c>
       <c r="F49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39700</v>
+        <v>33000</v>
       </c>
       <c r="E52" s="3">
-        <v>24800</v>
+        <v>40500</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>25300</v>
       </c>
       <c r="G52" s="3">
-        <v>18400</v>
+        <v>6600</v>
       </c>
       <c r="H52" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>583100</v>
+        <v>638900</v>
       </c>
       <c r="E54" s="3">
-        <v>470500</v>
+        <v>595400</v>
       </c>
       <c r="F54" s="3">
-        <v>268300</v>
+        <v>480500</v>
       </c>
       <c r="G54" s="3">
-        <v>286600</v>
+        <v>274000</v>
       </c>
       <c r="H54" s="3">
-        <v>215000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>292600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>219500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>1200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,20 +2301,23 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9200</v>
+        <v>23400</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>18700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2201,32 +2334,35 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>110000</v>
+        <v>109200</v>
       </c>
       <c r="E59" s="3">
-        <v>168700</v>
+        <v>112300</v>
       </c>
       <c r="F59" s="3">
-        <v>100200</v>
+        <v>201900</v>
       </c>
       <c r="G59" s="3">
-        <v>73900</v>
+        <v>102300</v>
       </c>
       <c r="H59" s="3">
-        <v>54700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>75500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>55900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121500</v>
+        <v>135700</v>
       </c>
       <c r="E60" s="3">
-        <v>108500</v>
+        <v>124000</v>
       </c>
       <c r="F60" s="3">
-        <v>101300</v>
+        <v>110800</v>
       </c>
       <c r="G60" s="3">
-        <v>75100</v>
+        <v>103400</v>
       </c>
       <c r="H60" s="3">
-        <v>55900</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>76700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>57100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,29 +2445,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>153300</v>
+        <v>152200</v>
       </c>
       <c r="E62" s="3">
-        <v>108500</v>
+        <v>156600</v>
       </c>
       <c r="F62" s="3">
-        <v>55100</v>
+        <v>169000</v>
       </c>
       <c r="G62" s="3">
-        <v>54600</v>
+        <v>56200</v>
       </c>
       <c r="H62" s="3">
-        <v>40400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>55700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>41200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>298700</v>
+        <v>310800</v>
       </c>
       <c r="E66" s="3">
-        <v>218300</v>
+        <v>305000</v>
       </c>
       <c r="F66" s="3">
-        <v>156400</v>
+        <v>222900</v>
       </c>
       <c r="G66" s="3">
-        <v>129800</v>
+        <v>159700</v>
       </c>
       <c r="H66" s="3">
-        <v>96400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>132500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>98400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47200</v>
+        <v>88900</v>
       </c>
       <c r="E72" s="3">
-        <v>38600</v>
+        <v>48200</v>
       </c>
       <c r="F72" s="3">
-        <v>34100</v>
+        <v>39400</v>
       </c>
       <c r="G72" s="3">
-        <v>85000</v>
+        <v>34800</v>
       </c>
       <c r="H72" s="3">
-        <v>47100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>86800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>48100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>284300</v>
+        <v>328100</v>
       </c>
       <c r="E76" s="3">
-        <v>252200</v>
+        <v>290400</v>
       </c>
       <c r="F76" s="3">
-        <v>111900</v>
+        <v>257600</v>
       </c>
       <c r="G76" s="3">
-        <v>156800</v>
+        <v>114200</v>
       </c>
       <c r="H76" s="3">
-        <v>118600</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>121100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67600</v>
+        <v>40800</v>
       </c>
       <c r="E81" s="3">
-        <v>56800</v>
+        <v>69100</v>
       </c>
       <c r="F81" s="3">
-        <v>41800</v>
+        <v>58000</v>
       </c>
       <c r="G81" s="3">
-        <v>40600</v>
+        <v>42700</v>
       </c>
       <c r="H81" s="3">
-        <v>36000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>41500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>36800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>10300</v>
       </c>
       <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5400</v>
-      </c>
       <c r="H83" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>6500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78500</v>
+        <v>46100</v>
       </c>
       <c r="E89" s="3">
-        <v>84800</v>
+        <v>80200</v>
       </c>
       <c r="F89" s="3">
-        <v>71700</v>
+        <v>86600</v>
       </c>
       <c r="G89" s="3">
-        <v>67800</v>
+        <v>73200</v>
       </c>
       <c r="H89" s="3">
-        <v>54600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>69200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>55700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32600</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
-        <v>-21200</v>
+        <v>-33300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2500</v>
+        <v>-21600</v>
       </c>
       <c r="G91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186400</v>
+        <v>-17400</v>
       </c>
       <c r="E94" s="3">
-        <v>-27800</v>
+        <v>-190300</v>
       </c>
       <c r="F94" s="3">
-        <v>-113800</v>
+        <v>-28400</v>
       </c>
       <c r="G94" s="3">
-        <v>11300</v>
+        <v>-116200</v>
       </c>
       <c r="H94" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-29100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,19 +3525,20 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-34700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-30600</v>
+        <v>-35400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-31300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32400</v>
+        <v>18000</v>
       </c>
       <c r="E100" s="3">
-        <v>101300</v>
+        <v>-33100</v>
       </c>
       <c r="F100" s="3">
-        <v>-98600</v>
+        <v>103500</v>
       </c>
       <c r="G100" s="3">
-        <v>-20300</v>
+        <v>-100700</v>
       </c>
       <c r="H100" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>-20700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-8000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>10100</v>
-      </c>
       <c r="F101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-141300</v>
+        <v>45500</v>
       </c>
       <c r="E102" s="3">
-        <v>168400</v>
+        <v>-144300</v>
       </c>
       <c r="F102" s="3">
-        <v>-140900</v>
+        <v>172000</v>
       </c>
       <c r="G102" s="3">
-        <v>59700</v>
+        <v>-143800</v>
       </c>
       <c r="H102" s="3">
-        <v>19100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>61000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>19500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>145100</v>
+        <v>143200</v>
       </c>
       <c r="E8" s="3">
-        <v>170300</v>
+        <v>168100</v>
       </c>
       <c r="F8" s="3">
-        <v>141300</v>
+        <v>139400</v>
       </c>
       <c r="G8" s="3">
-        <v>115900</v>
+        <v>114400</v>
       </c>
       <c r="H8" s="3">
-        <v>101100</v>
+        <v>99700</v>
       </c>
       <c r="I8" s="3">
-        <v>99000</v>
+        <v>97700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H9" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="I9" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>108100</v>
+        <v>106700</v>
       </c>
       <c r="H10" s="3">
-        <v>90700</v>
+        <v>89500</v>
       </c>
       <c r="I10" s="3">
-        <v>86800</v>
+        <v>85600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E15" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F15" s="3">
         <v>3700</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95300</v>
+        <v>94000</v>
       </c>
       <c r="E17" s="3">
-        <v>91600</v>
+        <v>90400</v>
       </c>
       <c r="F17" s="3">
-        <v>62500</v>
+        <v>61700</v>
       </c>
       <c r="G17" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="H17" s="3">
-        <v>52300</v>
+        <v>51700</v>
       </c>
       <c r="I17" s="3">
-        <v>54100</v>
+        <v>53400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49800</v>
+        <v>49200</v>
       </c>
       <c r="E18" s="3">
-        <v>78700</v>
+        <v>77700</v>
       </c>
       <c r="F18" s="3">
-        <v>78800</v>
+        <v>77800</v>
       </c>
       <c r="G18" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="H18" s="3">
-        <v>48700</v>
+        <v>48100</v>
       </c>
       <c r="I18" s="3">
-        <v>44900</v>
+        <v>44300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="F20" s="3">
         <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="H20" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I20" s="3">
         <v>7000</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>66100</v>
+        <v>65200</v>
       </c>
       <c r="E21" s="3">
-        <v>104400</v>
+        <v>103000</v>
       </c>
       <c r="F21" s="3">
-        <v>87100</v>
+        <v>86000</v>
       </c>
       <c r="G21" s="3">
-        <v>75400</v>
+        <v>74400</v>
       </c>
       <c r="H21" s="3">
-        <v>61700</v>
+        <v>60900</v>
       </c>
       <c r="I21" s="3">
-        <v>58400</v>
+        <v>57700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55300</v>
+        <v>54500</v>
       </c>
       <c r="E23" s="3">
-        <v>97700</v>
+        <v>96400</v>
       </c>
       <c r="F23" s="3">
-        <v>83000</v>
+        <v>82000</v>
       </c>
       <c r="G23" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="H23" s="3">
-        <v>56200</v>
+        <v>55500</v>
       </c>
       <c r="I23" s="3">
-        <v>51900</v>
+        <v>51300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F24" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="G24" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="H24" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="E26" s="3">
-        <v>68100</v>
+        <v>67200</v>
       </c>
       <c r="F26" s="3">
-        <v>59200</v>
+        <v>58400</v>
       </c>
       <c r="G26" s="3">
-        <v>42800</v>
+        <v>42200</v>
       </c>
       <c r="H26" s="3">
-        <v>43100</v>
+        <v>42500</v>
       </c>
       <c r="I26" s="3">
-        <v>39500</v>
+        <v>38900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="E27" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="F27" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="G27" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="H27" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I27" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-19400</v>
+        <v>-19100</v>
       </c>
       <c r="F32" s="3">
         <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="H32" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="I32" s="3">
         <v>-7000</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="E33" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="F33" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="G33" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="H33" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I33" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="E35" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="F35" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="G35" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="H35" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I35" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95400</v>
+        <v>94100</v>
       </c>
       <c r="E41" s="3">
-        <v>49900</v>
+        <v>49300</v>
       </c>
       <c r="F41" s="3">
-        <v>197200</v>
+        <v>194600</v>
       </c>
       <c r="G41" s="3">
-        <v>25300</v>
+        <v>24900</v>
       </c>
       <c r="H41" s="3">
-        <v>139900</v>
+        <v>138100</v>
       </c>
       <c r="I41" s="3">
-        <v>78900</v>
+        <v>77900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84900</v>
+        <v>83800</v>
       </c>
       <c r="E42" s="3">
-        <v>100500</v>
+        <v>99200</v>
       </c>
       <c r="F42" s="3">
-        <v>155000</v>
+        <v>152900</v>
       </c>
       <c r="G42" s="3">
-        <v>170000</v>
+        <v>167800</v>
       </c>
       <c r="H42" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="I42" s="3">
-        <v>62200</v>
+        <v>61400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52000</v>
+        <v>51400</v>
       </c>
       <c r="E43" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="F43" s="3">
-        <v>30800</v>
+        <v>30400</v>
       </c>
       <c r="G43" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H43" s="3">
-        <v>29000</v>
+        <v>28600</v>
       </c>
       <c r="I43" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="E45" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="3">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="H45" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="I45" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>247200</v>
+        <v>244000</v>
       </c>
       <c r="E46" s="3">
-        <v>197400</v>
+        <v>194800</v>
       </c>
       <c r="F46" s="3">
-        <v>382300</v>
+        <v>377300</v>
       </c>
       <c r="G46" s="3">
-        <v>231700</v>
+        <v>228700</v>
       </c>
       <c r="H46" s="3">
-        <v>249800</v>
+        <v>246600</v>
       </c>
       <c r="I46" s="3">
-        <v>176500</v>
+        <v>174200</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>162100</v>
+        <v>160000</v>
       </c>
       <c r="E47" s="3">
-        <v>168500</v>
+        <v>166300</v>
       </c>
       <c r="F47" s="3">
-        <v>66700</v>
+        <v>65900</v>
       </c>
       <c r="G47" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="H47" s="3">
         <v>5500</v>
       </c>
       <c r="I47" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104300</v>
+        <v>103000</v>
       </c>
       <c r="E48" s="3">
-        <v>95900</v>
+        <v>94700</v>
       </c>
       <c r="F48" s="3">
-        <v>69400</v>
+        <v>68500</v>
       </c>
       <c r="G48" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="H48" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="I48" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>92300</v>
+        <v>91100</v>
       </c>
       <c r="E49" s="3">
-        <v>93000</v>
+        <v>91800</v>
       </c>
       <c r="F49" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33000</v>
+        <v>32500</v>
       </c>
       <c r="E52" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="F52" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="G52" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="I52" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>638900</v>
+        <v>630500</v>
       </c>
       <c r="E54" s="3">
-        <v>595400</v>
+        <v>587700</v>
       </c>
       <c r="F54" s="3">
-        <v>480500</v>
+        <v>474200</v>
       </c>
       <c r="G54" s="3">
-        <v>274000</v>
+        <v>270400</v>
       </c>
       <c r="H54" s="3">
-        <v>292600</v>
+        <v>288800</v>
       </c>
       <c r="I54" s="3">
-        <v>219500</v>
+        <v>216700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="E58" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="F58" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109200</v>
+        <v>107800</v>
       </c>
       <c r="E59" s="3">
-        <v>112300</v>
+        <v>110800</v>
       </c>
       <c r="F59" s="3">
-        <v>201900</v>
+        <v>199300</v>
       </c>
       <c r="G59" s="3">
-        <v>102300</v>
+        <v>101000</v>
       </c>
       <c r="H59" s="3">
-        <v>75500</v>
+        <v>74500</v>
       </c>
       <c r="I59" s="3">
-        <v>55900</v>
+        <v>55200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>135700</v>
+        <v>133900</v>
       </c>
       <c r="E60" s="3">
-        <v>124000</v>
+        <v>122400</v>
       </c>
       <c r="F60" s="3">
-        <v>110800</v>
+        <v>109300</v>
       </c>
       <c r="G60" s="3">
-        <v>103400</v>
+        <v>102100</v>
       </c>
       <c r="H60" s="3">
-        <v>76700</v>
+        <v>75700</v>
       </c>
       <c r="I60" s="3">
-        <v>57100</v>
+        <v>56300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>152200</v>
+        <v>150200</v>
       </c>
       <c r="E62" s="3">
-        <v>156600</v>
+        <v>154500</v>
       </c>
       <c r="F62" s="3">
-        <v>169000</v>
+        <v>166800</v>
       </c>
       <c r="G62" s="3">
-        <v>56200</v>
+        <v>55500</v>
       </c>
       <c r="H62" s="3">
-        <v>55700</v>
+        <v>55000</v>
       </c>
       <c r="I62" s="3">
-        <v>41200</v>
+        <v>40700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>310800</v>
+        <v>306700</v>
       </c>
       <c r="E66" s="3">
-        <v>305000</v>
+        <v>301100</v>
       </c>
       <c r="F66" s="3">
-        <v>222900</v>
+        <v>220000</v>
       </c>
       <c r="G66" s="3">
-        <v>159700</v>
+        <v>157600</v>
       </c>
       <c r="H66" s="3">
-        <v>132500</v>
+        <v>130800</v>
       </c>
       <c r="I66" s="3">
-        <v>98400</v>
+        <v>97100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>88900</v>
+        <v>87800</v>
       </c>
       <c r="E72" s="3">
-        <v>48200</v>
+        <v>47500</v>
       </c>
       <c r="F72" s="3">
-        <v>39400</v>
+        <v>38900</v>
       </c>
       <c r="G72" s="3">
-        <v>34800</v>
+        <v>34400</v>
       </c>
       <c r="H72" s="3">
-        <v>86800</v>
+        <v>85700</v>
       </c>
       <c r="I72" s="3">
-        <v>48100</v>
+        <v>47500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>328100</v>
+        <v>323800</v>
       </c>
       <c r="E76" s="3">
-        <v>290400</v>
+        <v>286600</v>
       </c>
       <c r="F76" s="3">
-        <v>257600</v>
+        <v>254200</v>
       </c>
       <c r="G76" s="3">
-        <v>114200</v>
+        <v>112800</v>
       </c>
       <c r="H76" s="3">
-        <v>160100</v>
+        <v>158000</v>
       </c>
       <c r="I76" s="3">
-        <v>121100</v>
+        <v>119500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="E81" s="3">
-        <v>69100</v>
+        <v>68200</v>
       </c>
       <c r="F81" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="G81" s="3">
-        <v>42700</v>
+        <v>42100</v>
       </c>
       <c r="H81" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="I81" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="E83" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F83" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I83" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="E89" s="3">
-        <v>80200</v>
+        <v>79100</v>
       </c>
       <c r="F89" s="3">
-        <v>86600</v>
+        <v>85500</v>
       </c>
       <c r="G89" s="3">
-        <v>73200</v>
+        <v>72300</v>
       </c>
       <c r="H89" s="3">
-        <v>69200</v>
+        <v>68300</v>
       </c>
       <c r="I89" s="3">
-        <v>55700</v>
+        <v>55000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17500</v>
+        <v>-17200</v>
       </c>
       <c r="E91" s="3">
-        <v>-33300</v>
+        <v>-32800</v>
       </c>
       <c r="F91" s="3">
-        <v>-21600</v>
+        <v>-21300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
         <v>-900</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="E94" s="3">
-        <v>-190300</v>
+        <v>-187800</v>
       </c>
       <c r="F94" s="3">
-        <v>-28400</v>
+        <v>-28000</v>
       </c>
       <c r="G94" s="3">
-        <v>-116200</v>
+        <v>-114700</v>
       </c>
       <c r="H94" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I94" s="3">
-        <v>-29100</v>
+        <v>-28700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-35400</v>
+        <v>-34900</v>
       </c>
       <c r="F96" s="3">
-        <v>-31300</v>
+        <v>-30900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="E100" s="3">
-        <v>-33100</v>
+        <v>-32700</v>
       </c>
       <c r="F100" s="3">
-        <v>103500</v>
+        <v>102100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100700</v>
+        <v>-99300</v>
       </c>
       <c r="H100" s="3">
-        <v>-20700</v>
+        <v>-20500</v>
       </c>
       <c r="I100" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45500</v>
+        <v>44900</v>
       </c>
       <c r="E102" s="3">
-        <v>-144300</v>
+        <v>-142500</v>
       </c>
       <c r="F102" s="3">
-        <v>172000</v>
+        <v>169700</v>
       </c>
       <c r="G102" s="3">
-        <v>-143800</v>
+        <v>-142000</v>
       </c>
       <c r="H102" s="3">
-        <v>61000</v>
+        <v>60200</v>
       </c>
       <c r="I102" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>143200</v>
+        <v>145600</v>
       </c>
       <c r="E8" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="F8" s="3">
-        <v>139400</v>
+        <v>141800</v>
       </c>
       <c r="G8" s="3">
-        <v>114400</v>
+        <v>116400</v>
       </c>
       <c r="H8" s="3">
-        <v>99700</v>
+        <v>101400</v>
       </c>
       <c r="I8" s="3">
-        <v>97700</v>
+        <v>99400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H9" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="I9" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>106700</v>
+        <v>108400</v>
       </c>
       <c r="H10" s="3">
-        <v>89500</v>
+        <v>91000</v>
       </c>
       <c r="I10" s="3">
-        <v>85600</v>
+        <v>87100</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="E15" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F15" s="3">
         <v>3700</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>94000</v>
+        <v>95600</v>
       </c>
       <c r="E17" s="3">
-        <v>90400</v>
+        <v>91900</v>
       </c>
       <c r="F17" s="3">
-        <v>61700</v>
+        <v>62700</v>
       </c>
       <c r="G17" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="H17" s="3">
-        <v>51700</v>
+        <v>52500</v>
       </c>
       <c r="I17" s="3">
-        <v>53400</v>
+        <v>54300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49200</v>
+        <v>50000</v>
       </c>
       <c r="E18" s="3">
-        <v>77700</v>
+        <v>79000</v>
       </c>
       <c r="F18" s="3">
-        <v>77800</v>
+        <v>79100</v>
       </c>
       <c r="G18" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="H18" s="3">
-        <v>48100</v>
+        <v>48900</v>
       </c>
       <c r="I18" s="3">
-        <v>44300</v>
+        <v>45100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="F20" s="3">
         <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="H20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I20" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>65200</v>
+        <v>66300</v>
       </c>
       <c r="E21" s="3">
-        <v>103000</v>
+        <v>104700</v>
       </c>
       <c r="F21" s="3">
-        <v>86000</v>
+        <v>87400</v>
       </c>
       <c r="G21" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="H21" s="3">
-        <v>60900</v>
+        <v>61900</v>
       </c>
       <c r="I21" s="3">
-        <v>57700</v>
+        <v>58600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54500</v>
+        <v>55500</v>
       </c>
       <c r="E23" s="3">
-        <v>96400</v>
+        <v>98000</v>
       </c>
       <c r="F23" s="3">
-        <v>82000</v>
+        <v>83300</v>
       </c>
       <c r="G23" s="3">
-        <v>70300</v>
+        <v>71500</v>
       </c>
       <c r="H23" s="3">
-        <v>55500</v>
+        <v>56400</v>
       </c>
       <c r="I23" s="3">
-        <v>51300</v>
+        <v>52100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E24" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="F24" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="G24" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H24" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I24" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="E26" s="3">
-        <v>67200</v>
+        <v>68300</v>
       </c>
       <c r="F26" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="G26" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="H26" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="I26" s="3">
-        <v>38900</v>
+        <v>39600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E27" s="3">
-        <v>68200</v>
+        <v>69300</v>
       </c>
       <c r="F27" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="G27" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="H27" s="3">
-        <v>41000</v>
+        <v>41600</v>
       </c>
       <c r="I27" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
-        <v>-19100</v>
+        <v>-19400</v>
       </c>
       <c r="F32" s="3">
         <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-13300</v>
+        <v>-13600</v>
       </c>
       <c r="H32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="I32" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E33" s="3">
-        <v>68200</v>
+        <v>69300</v>
       </c>
       <c r="F33" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="G33" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="H33" s="3">
-        <v>41000</v>
+        <v>41600</v>
       </c>
       <c r="I33" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E35" s="3">
-        <v>68200</v>
+        <v>69300</v>
       </c>
       <c r="F35" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="G35" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="H35" s="3">
-        <v>41000</v>
+        <v>41600</v>
       </c>
       <c r="I35" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94100</v>
+        <v>95700</v>
       </c>
       <c r="E41" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="F41" s="3">
-        <v>194600</v>
+        <v>197900</v>
       </c>
       <c r="G41" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="H41" s="3">
-        <v>138100</v>
+        <v>140400</v>
       </c>
       <c r="I41" s="3">
-        <v>77900</v>
+        <v>79200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="E42" s="3">
-        <v>99200</v>
+        <v>100900</v>
       </c>
       <c r="F42" s="3">
-        <v>152900</v>
+        <v>155500</v>
       </c>
       <c r="G42" s="3">
-        <v>167800</v>
+        <v>170600</v>
       </c>
       <c r="H42" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="I42" s="3">
-        <v>61400</v>
+        <v>62400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51400</v>
+        <v>52200</v>
       </c>
       <c r="E43" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="F43" s="3">
-        <v>30400</v>
+        <v>30900</v>
       </c>
       <c r="G43" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="I43" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="H45" s="3">
-        <v>37500</v>
+        <v>38100</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>244000</v>
+        <v>248000</v>
       </c>
       <c r="E46" s="3">
-        <v>194800</v>
+        <v>198100</v>
       </c>
       <c r="F46" s="3">
-        <v>377300</v>
+        <v>383700</v>
       </c>
       <c r="G46" s="3">
-        <v>228700</v>
+        <v>232600</v>
       </c>
       <c r="H46" s="3">
-        <v>246600</v>
+        <v>250700</v>
       </c>
       <c r="I46" s="3">
-        <v>174200</v>
+        <v>177100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>160000</v>
+        <v>162700</v>
       </c>
       <c r="E47" s="3">
-        <v>166300</v>
+        <v>169100</v>
       </c>
       <c r="F47" s="3">
-        <v>65900</v>
+        <v>67000</v>
       </c>
       <c r="G47" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="H47" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I47" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103000</v>
+        <v>104700</v>
       </c>
       <c r="E48" s="3">
-        <v>94700</v>
+        <v>96300</v>
       </c>
       <c r="F48" s="3">
-        <v>68500</v>
+        <v>69600</v>
       </c>
       <c r="G48" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="H48" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I48" s="3">
-        <v>21800</v>
+        <v>22100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91100</v>
+        <v>92600</v>
       </c>
       <c r="E49" s="3">
-        <v>91800</v>
+        <v>93400</v>
       </c>
       <c r="F49" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="E52" s="3">
-        <v>40000</v>
+        <v>40700</v>
       </c>
       <c r="F52" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H52" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="I52" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>630500</v>
+        <v>641100</v>
       </c>
       <c r="E54" s="3">
-        <v>587700</v>
+        <v>597500</v>
       </c>
       <c r="F54" s="3">
-        <v>474200</v>
+        <v>482200</v>
       </c>
       <c r="G54" s="3">
-        <v>270400</v>
+        <v>274900</v>
       </c>
       <c r="H54" s="3">
-        <v>288800</v>
+        <v>293700</v>
       </c>
       <c r="I54" s="3">
-        <v>216700</v>
+        <v>220300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="E58" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F58" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107800</v>
+        <v>109600</v>
       </c>
       <c r="E59" s="3">
-        <v>110800</v>
+        <v>112700</v>
       </c>
       <c r="F59" s="3">
-        <v>199300</v>
+        <v>202600</v>
       </c>
       <c r="G59" s="3">
-        <v>101000</v>
+        <v>102700</v>
       </c>
       <c r="H59" s="3">
-        <v>74500</v>
+        <v>75700</v>
       </c>
       <c r="I59" s="3">
-        <v>55200</v>
+        <v>56100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133900</v>
+        <v>136100</v>
       </c>
       <c r="E60" s="3">
-        <v>122400</v>
+        <v>124500</v>
       </c>
       <c r="F60" s="3">
-        <v>109300</v>
+        <v>111200</v>
       </c>
       <c r="G60" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="H60" s="3">
-        <v>75700</v>
+        <v>77000</v>
       </c>
       <c r="I60" s="3">
-        <v>56300</v>
+        <v>57300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>150200</v>
+        <v>152700</v>
       </c>
       <c r="E62" s="3">
-        <v>154500</v>
+        <v>157100</v>
       </c>
       <c r="F62" s="3">
-        <v>166800</v>
+        <v>169600</v>
       </c>
       <c r="G62" s="3">
-        <v>55500</v>
+        <v>56400</v>
       </c>
       <c r="H62" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="I62" s="3">
-        <v>40700</v>
+        <v>41400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>306700</v>
+        <v>311900</v>
       </c>
       <c r="E66" s="3">
-        <v>301100</v>
+        <v>306100</v>
       </c>
       <c r="F66" s="3">
-        <v>220000</v>
+        <v>223700</v>
       </c>
       <c r="G66" s="3">
-        <v>157600</v>
+        <v>160300</v>
       </c>
       <c r="H66" s="3">
-        <v>130800</v>
+        <v>133000</v>
       </c>
       <c r="I66" s="3">
-        <v>97100</v>
+        <v>98800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87800</v>
+        <v>89200</v>
       </c>
       <c r="E72" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="F72" s="3">
-        <v>38900</v>
+        <v>39500</v>
       </c>
       <c r="G72" s="3">
-        <v>34400</v>
+        <v>34900</v>
       </c>
       <c r="H72" s="3">
-        <v>85700</v>
+        <v>87100</v>
       </c>
       <c r="I72" s="3">
-        <v>47500</v>
+        <v>48300</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>323800</v>
+        <v>329300</v>
       </c>
       <c r="E76" s="3">
-        <v>286600</v>
+        <v>291400</v>
       </c>
       <c r="F76" s="3">
-        <v>254200</v>
+        <v>258500</v>
       </c>
       <c r="G76" s="3">
-        <v>112800</v>
+        <v>114600</v>
       </c>
       <c r="H76" s="3">
-        <v>158000</v>
+        <v>160700</v>
       </c>
       <c r="I76" s="3">
-        <v>119500</v>
+        <v>121500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E81" s="3">
-        <v>68200</v>
+        <v>69300</v>
       </c>
       <c r="F81" s="3">
-        <v>57200</v>
+        <v>58200</v>
       </c>
       <c r="G81" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="H81" s="3">
-        <v>41000</v>
+        <v>41600</v>
       </c>
       <c r="I81" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E83" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
-        <v>3800</v>
-      </c>
       <c r="H83" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I83" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45500</v>
+        <v>46200</v>
       </c>
       <c r="E89" s="3">
-        <v>79100</v>
+        <v>80500</v>
       </c>
       <c r="F89" s="3">
-        <v>85500</v>
+        <v>86900</v>
       </c>
       <c r="G89" s="3">
-        <v>72300</v>
+        <v>73500</v>
       </c>
       <c r="H89" s="3">
-        <v>68300</v>
+        <v>69400</v>
       </c>
       <c r="I89" s="3">
-        <v>55000</v>
+        <v>55900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="E91" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="F91" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
         <v>-900</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="E94" s="3">
-        <v>-187800</v>
+        <v>-191000</v>
       </c>
       <c r="F94" s="3">
-        <v>-28000</v>
+        <v>-28500</v>
       </c>
       <c r="G94" s="3">
-        <v>-114700</v>
+        <v>-116600</v>
       </c>
       <c r="H94" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I94" s="3">
-        <v>-28700</v>
+        <v>-29200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-34900</v>
+        <v>-35500</v>
       </c>
       <c r="F96" s="3">
-        <v>-30900</v>
+        <v>-31400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="E100" s="3">
-        <v>-32700</v>
+        <v>-33200</v>
       </c>
       <c r="F100" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="G100" s="3">
-        <v>-99300</v>
+        <v>-101000</v>
       </c>
       <c r="H100" s="3">
-        <v>-20500</v>
+        <v>-20800</v>
       </c>
       <c r="I100" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>44900</v>
+        <v>45600</v>
       </c>
       <c r="E102" s="3">
-        <v>-142500</v>
+        <v>-144800</v>
       </c>
       <c r="F102" s="3">
-        <v>169700</v>
+        <v>172600</v>
       </c>
       <c r="G102" s="3">
-        <v>-142000</v>
+        <v>-144400</v>
       </c>
       <c r="H102" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="I102" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>145600</v>
+        <v>146700</v>
       </c>
       <c r="E8" s="3">
-        <v>170900</v>
+        <v>172200</v>
       </c>
       <c r="F8" s="3">
-        <v>141800</v>
+        <v>142900</v>
       </c>
       <c r="G8" s="3">
-        <v>116400</v>
+        <v>117200</v>
       </c>
       <c r="H8" s="3">
-        <v>101400</v>
+        <v>102200</v>
       </c>
       <c r="I8" s="3">
-        <v>99400</v>
+        <v>100100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H9" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="I9" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>108400</v>
+        <v>109300</v>
       </c>
       <c r="H10" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="I10" s="3">
-        <v>87100</v>
+        <v>87700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="E15" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F15" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95600</v>
+        <v>96400</v>
       </c>
       <c r="E17" s="3">
-        <v>91900</v>
+        <v>92600</v>
       </c>
       <c r="F17" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="G17" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="H17" s="3">
-        <v>52500</v>
+        <v>52900</v>
       </c>
       <c r="I17" s="3">
-        <v>54300</v>
+        <v>54700</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="E18" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="F18" s="3">
-        <v>79100</v>
+        <v>79700</v>
       </c>
       <c r="G18" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="H18" s="3">
-        <v>48900</v>
+        <v>49300</v>
       </c>
       <c r="I18" s="3">
-        <v>45100</v>
+        <v>45400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G20" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="H20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I20" s="3">
         <v>7100</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>66300</v>
+        <v>66900</v>
       </c>
       <c r="E21" s="3">
-        <v>104700</v>
+        <v>105600</v>
       </c>
       <c r="F21" s="3">
-        <v>87400</v>
+        <v>88100</v>
       </c>
       <c r="G21" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="H21" s="3">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="I21" s="3">
-        <v>58600</v>
+        <v>59100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55500</v>
+        <v>55900</v>
       </c>
       <c r="E23" s="3">
-        <v>98000</v>
+        <v>98800</v>
       </c>
       <c r="F23" s="3">
-        <v>83300</v>
+        <v>84000</v>
       </c>
       <c r="G23" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="H23" s="3">
-        <v>56400</v>
+        <v>56800</v>
       </c>
       <c r="I23" s="3">
-        <v>52100</v>
+        <v>52500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E24" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="F24" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="G24" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="H24" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="I24" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="E26" s="3">
-        <v>68300</v>
+        <v>68900</v>
       </c>
       <c r="F26" s="3">
-        <v>59400</v>
+        <v>59900</v>
       </c>
       <c r="G26" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="H26" s="3">
-        <v>43300</v>
+        <v>43600</v>
       </c>
       <c r="I26" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E27" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="F27" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="G27" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="H27" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="I27" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-19400</v>
+        <v>-19600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G32" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="H32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I32" s="3">
         <v>-7100</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E33" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="F33" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="G33" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="H33" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="I33" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E35" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="F35" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="G35" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="H35" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="I35" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95700</v>
+        <v>96400</v>
       </c>
       <c r="E41" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="F41" s="3">
-        <v>197900</v>
+        <v>199400</v>
       </c>
       <c r="G41" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="H41" s="3">
-        <v>140400</v>
+        <v>141500</v>
       </c>
       <c r="I41" s="3">
-        <v>79200</v>
+        <v>79800</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>85200</v>
+        <v>85900</v>
       </c>
       <c r="E42" s="3">
-        <v>100900</v>
+        <v>101600</v>
       </c>
       <c r="F42" s="3">
-        <v>155500</v>
+        <v>156700</v>
       </c>
       <c r="G42" s="3">
-        <v>170600</v>
+        <v>171900</v>
       </c>
       <c r="H42" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="I42" s="3">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="E43" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="F43" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H43" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="I43" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3">
         <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="H45" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="I45" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>248000</v>
+        <v>249900</v>
       </c>
       <c r="E46" s="3">
-        <v>198100</v>
+        <v>199600</v>
       </c>
       <c r="F46" s="3">
-        <v>383700</v>
+        <v>386600</v>
       </c>
       <c r="G46" s="3">
-        <v>232600</v>
+        <v>234300</v>
       </c>
       <c r="H46" s="3">
-        <v>250700</v>
+        <v>252600</v>
       </c>
       <c r="I46" s="3">
-        <v>177100</v>
+        <v>178500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>162700</v>
+        <v>163900</v>
       </c>
       <c r="E47" s="3">
-        <v>169100</v>
+        <v>170400</v>
       </c>
       <c r="F47" s="3">
-        <v>67000</v>
+        <v>67500</v>
       </c>
       <c r="G47" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="H47" s="3">
         <v>5600</v>
       </c>
       <c r="I47" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104700</v>
+        <v>105500</v>
       </c>
       <c r="E48" s="3">
-        <v>96300</v>
+        <v>97000</v>
       </c>
       <c r="F48" s="3">
-        <v>69600</v>
+        <v>70200</v>
       </c>
       <c r="G48" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H48" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="I48" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>92600</v>
+        <v>93400</v>
       </c>
       <c r="E49" s="3">
-        <v>93400</v>
+        <v>94100</v>
       </c>
       <c r="F49" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H49" s="3">
         <v>1200</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="E52" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="F52" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="G52" s="3">
         <v>6600</v>
       </c>
       <c r="H52" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>641100</v>
+        <v>646000</v>
       </c>
       <c r="E54" s="3">
-        <v>597500</v>
+        <v>602100</v>
       </c>
       <c r="F54" s="3">
-        <v>482200</v>
+        <v>485900</v>
       </c>
       <c r="G54" s="3">
-        <v>274900</v>
+        <v>277000</v>
       </c>
       <c r="H54" s="3">
-        <v>293700</v>
+        <v>295900</v>
       </c>
       <c r="I54" s="3">
-        <v>220300</v>
+        <v>222000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="E58" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="F58" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109600</v>
+        <v>110400</v>
       </c>
       <c r="E59" s="3">
-        <v>112700</v>
+        <v>113500</v>
       </c>
       <c r="F59" s="3">
-        <v>202600</v>
+        <v>204200</v>
       </c>
       <c r="G59" s="3">
-        <v>102700</v>
+        <v>103400</v>
       </c>
       <c r="H59" s="3">
-        <v>75700</v>
+        <v>76300</v>
       </c>
       <c r="I59" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>136100</v>
+        <v>137200</v>
       </c>
       <c r="E60" s="3">
-        <v>124500</v>
+        <v>125400</v>
       </c>
       <c r="F60" s="3">
-        <v>111200</v>
+        <v>112000</v>
       </c>
       <c r="G60" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="H60" s="3">
-        <v>77000</v>
+        <v>77500</v>
       </c>
       <c r="I60" s="3">
-        <v>57300</v>
+        <v>57700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>152700</v>
+        <v>153900</v>
       </c>
       <c r="E62" s="3">
-        <v>157100</v>
+        <v>158300</v>
       </c>
       <c r="F62" s="3">
-        <v>169600</v>
+        <v>170900</v>
       </c>
       <c r="G62" s="3">
+        <v>56800</v>
+      </c>
+      <c r="H62" s="3">
         <v>56400</v>
       </c>
-      <c r="H62" s="3">
-        <v>55900</v>
-      </c>
       <c r="I62" s="3">
-        <v>41400</v>
+        <v>41700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>311900</v>
+        <v>314200</v>
       </c>
       <c r="E66" s="3">
-        <v>306100</v>
+        <v>308500</v>
       </c>
       <c r="F66" s="3">
-        <v>223700</v>
+        <v>225400</v>
       </c>
       <c r="G66" s="3">
-        <v>160300</v>
+        <v>161500</v>
       </c>
       <c r="H66" s="3">
-        <v>133000</v>
+        <v>134000</v>
       </c>
       <c r="I66" s="3">
-        <v>98800</v>
+        <v>99500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>89200</v>
+        <v>89900</v>
       </c>
       <c r="E72" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="F72" s="3">
-        <v>39500</v>
+        <v>39900</v>
       </c>
       <c r="G72" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="H72" s="3">
-        <v>87100</v>
+        <v>87800</v>
       </c>
       <c r="I72" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>329300</v>
+        <v>331800</v>
       </c>
       <c r="E76" s="3">
-        <v>291400</v>
+        <v>293600</v>
       </c>
       <c r="F76" s="3">
-        <v>258500</v>
+        <v>260500</v>
       </c>
       <c r="G76" s="3">
-        <v>114600</v>
+        <v>115500</v>
       </c>
       <c r="H76" s="3">
-        <v>160700</v>
+        <v>161900</v>
       </c>
       <c r="I76" s="3">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E81" s="3">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="F81" s="3">
-        <v>58200</v>
+        <v>58600</v>
       </c>
       <c r="G81" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="H81" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="I81" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,10 +3104,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="E83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
@@ -3116,10 +3116,10 @@
         <v>3900</v>
       </c>
       <c r="H83" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I83" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="E89" s="3">
-        <v>80500</v>
+        <v>81100</v>
       </c>
       <c r="F89" s="3">
-        <v>86900</v>
+        <v>87500</v>
       </c>
       <c r="G89" s="3">
-        <v>73500</v>
+        <v>74100</v>
       </c>
       <c r="H89" s="3">
-        <v>69400</v>
+        <v>70000</v>
       </c>
       <c r="I89" s="3">
-        <v>55900</v>
+        <v>56400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17500</v>
+        <v>-17700</v>
       </c>
       <c r="E91" s="3">
-        <v>-33400</v>
+        <v>-33700</v>
       </c>
       <c r="F91" s="3">
-        <v>-21700</v>
+        <v>-21800</v>
       </c>
       <c r="G91" s="3">
         <v>-2600</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17500</v>
+        <v>-17600</v>
       </c>
       <c r="E94" s="3">
-        <v>-191000</v>
+        <v>-192500</v>
       </c>
       <c r="F94" s="3">
-        <v>-28500</v>
+        <v>-28700</v>
       </c>
       <c r="G94" s="3">
-        <v>-116600</v>
+        <v>-117500</v>
       </c>
       <c r="H94" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I94" s="3">
-        <v>-29200</v>
+        <v>-29400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-35500</v>
+        <v>-35800</v>
       </c>
       <c r="F96" s="3">
-        <v>-31400</v>
+        <v>-31600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="E100" s="3">
-        <v>-33200</v>
+        <v>-33500</v>
       </c>
       <c r="F100" s="3">
-        <v>103800</v>
+        <v>104600</v>
       </c>
       <c r="G100" s="3">
-        <v>-101000</v>
+        <v>-101800</v>
       </c>
       <c r="H100" s="3">
-        <v>-20800</v>
+        <v>-21000</v>
       </c>
       <c r="I100" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45600</v>
+        <v>46000</v>
       </c>
       <c r="E102" s="3">
-        <v>-144800</v>
+        <v>-146000</v>
       </c>
       <c r="F102" s="3">
-        <v>172600</v>
+        <v>173900</v>
       </c>
       <c r="G102" s="3">
-        <v>-144400</v>
+        <v>-145500</v>
       </c>
       <c r="H102" s="3">
-        <v>61200</v>
+        <v>61700</v>
       </c>
       <c r="I102" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>146700</v>
+        <v>137000</v>
       </c>
       <c r="E8" s="3">
-        <v>172200</v>
+        <v>160900</v>
       </c>
       <c r="F8" s="3">
-        <v>142900</v>
+        <v>133500</v>
       </c>
       <c r="G8" s="3">
-        <v>117200</v>
+        <v>109500</v>
       </c>
       <c r="H8" s="3">
-        <v>102200</v>
+        <v>95500</v>
       </c>
       <c r="I8" s="3">
-        <v>100100</v>
+        <v>93500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="H9" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="I9" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,13 +802,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>109300</v>
+        <v>102100</v>
       </c>
       <c r="H10" s="3">
-        <v>91700</v>
+        <v>85700</v>
       </c>
       <c r="I10" s="3">
-        <v>87700</v>
+        <v>82000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="E15" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F15" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="E17" s="3">
-        <v>92600</v>
+        <v>86500</v>
       </c>
       <c r="F17" s="3">
-        <v>63200</v>
+        <v>59000</v>
       </c>
       <c r="G17" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="H17" s="3">
-        <v>52900</v>
+        <v>49400</v>
       </c>
       <c r="I17" s="3">
-        <v>54700</v>
+        <v>51100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>50400</v>
+        <v>47000</v>
       </c>
       <c r="E18" s="3">
-        <v>79600</v>
+        <v>74400</v>
       </c>
       <c r="F18" s="3">
-        <v>79700</v>
+        <v>74400</v>
       </c>
       <c r="G18" s="3">
-        <v>58600</v>
+        <v>54700</v>
       </c>
       <c r="H18" s="3">
-        <v>49300</v>
+        <v>46000</v>
       </c>
       <c r="I18" s="3">
-        <v>45400</v>
+        <v>42400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="G20" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="H20" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="I20" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>66900</v>
+        <v>62500</v>
       </c>
       <c r="E21" s="3">
-        <v>105600</v>
+        <v>98600</v>
       </c>
       <c r="F21" s="3">
-        <v>88100</v>
+        <v>82300</v>
       </c>
       <c r="G21" s="3">
-        <v>76200</v>
+        <v>71200</v>
       </c>
       <c r="H21" s="3">
-        <v>62400</v>
+        <v>58300</v>
       </c>
       <c r="I21" s="3">
-        <v>59100</v>
+        <v>55300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55900</v>
+        <v>52200</v>
       </c>
       <c r="E23" s="3">
-        <v>98800</v>
+        <v>92300</v>
       </c>
       <c r="F23" s="3">
-        <v>84000</v>
+        <v>78400</v>
       </c>
       <c r="G23" s="3">
-        <v>72000</v>
+        <v>67300</v>
       </c>
       <c r="H23" s="3">
-        <v>56800</v>
+        <v>53100</v>
       </c>
       <c r="I23" s="3">
-        <v>52500</v>
+        <v>49100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="E24" s="3">
-        <v>29900</v>
+        <v>27900</v>
       </c>
       <c r="F24" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="G24" s="3">
-        <v>28800</v>
+        <v>26900</v>
       </c>
       <c r="H24" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="I24" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38500</v>
+        <v>35900</v>
       </c>
       <c r="E26" s="3">
-        <v>68900</v>
+        <v>64300</v>
       </c>
       <c r="F26" s="3">
-        <v>59900</v>
+        <v>55900</v>
       </c>
       <c r="G26" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="H26" s="3">
-        <v>43600</v>
+        <v>40700</v>
       </c>
       <c r="I26" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="E27" s="3">
-        <v>69800</v>
+        <v>65200</v>
       </c>
       <c r="F27" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="G27" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="H27" s="3">
-        <v>42000</v>
+        <v>39200</v>
       </c>
       <c r="I27" s="3">
-        <v>37200</v>
+        <v>34700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
-        <v>-19600</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="G32" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="H32" s="3">
-        <v>-7600</v>
+        <v>-7100</v>
       </c>
       <c r="I32" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="E33" s="3">
-        <v>69800</v>
+        <v>65200</v>
       </c>
       <c r="F33" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="G33" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="H33" s="3">
-        <v>42000</v>
+        <v>39200</v>
       </c>
       <c r="I33" s="3">
-        <v>37200</v>
+        <v>34700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="E35" s="3">
-        <v>69800</v>
+        <v>65200</v>
       </c>
       <c r="F35" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="G35" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="H35" s="3">
-        <v>42000</v>
+        <v>39200</v>
       </c>
       <c r="I35" s="3">
-        <v>37200</v>
+        <v>34700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96400</v>
+        <v>90100</v>
       </c>
       <c r="E41" s="3">
-        <v>50500</v>
+        <v>47100</v>
       </c>
       <c r="F41" s="3">
-        <v>199400</v>
+        <v>186300</v>
       </c>
       <c r="G41" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="H41" s="3">
-        <v>141500</v>
+        <v>132100</v>
       </c>
       <c r="I41" s="3">
-        <v>79800</v>
+        <v>74500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>85900</v>
+        <v>80200</v>
       </c>
       <c r="E42" s="3">
-        <v>101600</v>
+        <v>94900</v>
       </c>
       <c r="F42" s="3">
-        <v>156700</v>
+        <v>146400</v>
       </c>
       <c r="G42" s="3">
-        <v>171900</v>
+        <v>160600</v>
       </c>
       <c r="H42" s="3">
-        <v>43100</v>
+        <v>40300</v>
       </c>
       <c r="I42" s="3">
-        <v>62900</v>
+        <v>58700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52600</v>
+        <v>49100</v>
       </c>
       <c r="E43" s="3">
-        <v>33700</v>
+        <v>31500</v>
       </c>
       <c r="F43" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="G43" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="H43" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="I43" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1856,7 +1856,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="E45" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="F45" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G45" s="3">
-        <v>26500</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>38400</v>
+        <v>35900</v>
       </c>
       <c r="I45" s="3">
-        <v>16700</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>249900</v>
+        <v>233500</v>
       </c>
       <c r="E46" s="3">
-        <v>199600</v>
+        <v>186400</v>
       </c>
       <c r="F46" s="3">
-        <v>386600</v>
+        <v>361100</v>
       </c>
       <c r="G46" s="3">
-        <v>234300</v>
+        <v>218900</v>
       </c>
       <c r="H46" s="3">
-        <v>252600</v>
+        <v>236000</v>
       </c>
       <c r="I46" s="3">
-        <v>178500</v>
+        <v>166700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>163900</v>
+        <v>153100</v>
       </c>
       <c r="E47" s="3">
-        <v>170400</v>
+        <v>159200</v>
       </c>
       <c r="F47" s="3">
-        <v>67500</v>
+        <v>63000</v>
       </c>
       <c r="G47" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="H47" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="I47" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>105500</v>
+        <v>98500</v>
       </c>
       <c r="E48" s="3">
-        <v>97000</v>
+        <v>90600</v>
       </c>
       <c r="F48" s="3">
-        <v>70200</v>
+        <v>65500</v>
       </c>
       <c r="G48" s="3">
-        <v>15300</v>
+        <v>14200</v>
       </c>
       <c r="H48" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="I48" s="3">
-        <v>22300</v>
+        <v>20800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>93400</v>
+        <v>87200</v>
       </c>
       <c r="E49" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="F49" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="G49" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1200</v>
       </c>
       <c r="I49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33300</v>
+        <v>31100</v>
       </c>
       <c r="E52" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="F52" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="G52" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="I52" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>646000</v>
+        <v>603400</v>
       </c>
       <c r="E54" s="3">
-        <v>602100</v>
+        <v>562400</v>
       </c>
       <c r="F54" s="3">
-        <v>485900</v>
+        <v>453800</v>
       </c>
       <c r="G54" s="3">
-        <v>277000</v>
+        <v>258800</v>
       </c>
       <c r="H54" s="3">
-        <v>295900</v>
+        <v>276400</v>
       </c>
       <c r="I54" s="3">
-        <v>222000</v>
+        <v>207400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2311,13 +2311,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="E58" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="F58" s="3">
-        <v>18900</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>110400</v>
+        <v>103100</v>
       </c>
       <c r="E59" s="3">
-        <v>113500</v>
+        <v>106100</v>
       </c>
       <c r="F59" s="3">
-        <v>204200</v>
+        <v>190700</v>
       </c>
       <c r="G59" s="3">
-        <v>103400</v>
+        <v>96600</v>
       </c>
       <c r="H59" s="3">
-        <v>76300</v>
+        <v>71300</v>
       </c>
       <c r="I59" s="3">
-        <v>56500</v>
+        <v>52800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>137200</v>
+        <v>128100</v>
       </c>
       <c r="E60" s="3">
-        <v>125400</v>
+        <v>117200</v>
       </c>
       <c r="F60" s="3">
-        <v>112000</v>
+        <v>104600</v>
       </c>
       <c r="G60" s="3">
-        <v>104600</v>
+        <v>97700</v>
       </c>
       <c r="H60" s="3">
-        <v>77500</v>
+        <v>72400</v>
       </c>
       <c r="I60" s="3">
-        <v>57700</v>
+        <v>53900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>153900</v>
+        <v>143700</v>
       </c>
       <c r="E62" s="3">
-        <v>158300</v>
+        <v>147900</v>
       </c>
       <c r="F62" s="3">
-        <v>170900</v>
+        <v>159700</v>
       </c>
       <c r="G62" s="3">
-        <v>56800</v>
+        <v>53100</v>
       </c>
       <c r="H62" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="I62" s="3">
-        <v>41700</v>
+        <v>38900</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>314200</v>
+        <v>293500</v>
       </c>
       <c r="E66" s="3">
-        <v>308500</v>
+        <v>288100</v>
       </c>
       <c r="F66" s="3">
-        <v>225400</v>
+        <v>210500</v>
       </c>
       <c r="G66" s="3">
-        <v>161500</v>
+        <v>150900</v>
       </c>
       <c r="H66" s="3">
-        <v>134000</v>
+        <v>125200</v>
       </c>
       <c r="I66" s="3">
-        <v>99500</v>
+        <v>93000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>89900</v>
+        <v>84000</v>
       </c>
       <c r="E72" s="3">
-        <v>48700</v>
+        <v>45500</v>
       </c>
       <c r="F72" s="3">
-        <v>39900</v>
+        <v>37200</v>
       </c>
       <c r="G72" s="3">
-        <v>35200</v>
+        <v>32900</v>
       </c>
       <c r="H72" s="3">
-        <v>87800</v>
+        <v>82000</v>
       </c>
       <c r="I72" s="3">
-        <v>48700</v>
+        <v>45500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>331800</v>
+        <v>309900</v>
       </c>
       <c r="E76" s="3">
-        <v>293600</v>
+        <v>274300</v>
       </c>
       <c r="F76" s="3">
-        <v>260500</v>
+        <v>243300</v>
       </c>
       <c r="G76" s="3">
-        <v>115500</v>
+        <v>107900</v>
       </c>
       <c r="H76" s="3">
-        <v>161900</v>
+        <v>151200</v>
       </c>
       <c r="I76" s="3">
-        <v>122500</v>
+        <v>114400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="E81" s="3">
-        <v>69800</v>
+        <v>65200</v>
       </c>
       <c r="F81" s="3">
-        <v>58600</v>
+        <v>54800</v>
       </c>
       <c r="G81" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="H81" s="3">
-        <v>42000</v>
+        <v>39200</v>
       </c>
       <c r="I81" s="3">
-        <v>37200</v>
+        <v>34700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="E83" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F83" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H83" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="I83" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>46600</v>
+        <v>43500</v>
       </c>
       <c r="E89" s="3">
-        <v>81100</v>
+        <v>75700</v>
       </c>
       <c r="F89" s="3">
-        <v>87500</v>
+        <v>81800</v>
       </c>
       <c r="G89" s="3">
-        <v>74100</v>
+        <v>69200</v>
       </c>
       <c r="H89" s="3">
-        <v>70000</v>
+        <v>65400</v>
       </c>
       <c r="I89" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17700</v>
+        <v>-16500</v>
       </c>
       <c r="E91" s="3">
-        <v>-33700</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-21800</v>
+        <v>-20400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="H91" s="3">
         <v>-900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17600</v>
+        <v>-16400</v>
       </c>
       <c r="E94" s="3">
-        <v>-192500</v>
+        <v>-179800</v>
       </c>
       <c r="F94" s="3">
-        <v>-28700</v>
+        <v>-26800</v>
       </c>
       <c r="G94" s="3">
-        <v>-117500</v>
+        <v>-109800</v>
       </c>
       <c r="H94" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="I94" s="3">
-        <v>-29400</v>
+        <v>-27500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-35800</v>
+        <v>-33400</v>
       </c>
       <c r="F96" s="3">
-        <v>-31600</v>
+        <v>-29600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="E100" s="3">
-        <v>-33500</v>
+        <v>-31300</v>
       </c>
       <c r="F100" s="3">
-        <v>104600</v>
+        <v>97700</v>
       </c>
       <c r="G100" s="3">
-        <v>-101800</v>
+        <v>-95100</v>
       </c>
       <c r="H100" s="3">
-        <v>-21000</v>
+        <v>-19600</v>
       </c>
       <c r="I100" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46000</v>
+        <v>43000</v>
       </c>
       <c r="E102" s="3">
-        <v>-146000</v>
+        <v>-136300</v>
       </c>
       <c r="F102" s="3">
-        <v>173900</v>
+        <v>162400</v>
       </c>
       <c r="G102" s="3">
-        <v>-145500</v>
+        <v>-135900</v>
       </c>
       <c r="H102" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="I102" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>GHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>137000</v>
+        <v>176100</v>
       </c>
       <c r="E8" s="3">
-        <v>160900</v>
+        <v>135800</v>
       </c>
       <c r="F8" s="3">
-        <v>133500</v>
+        <v>159400</v>
       </c>
       <c r="G8" s="3">
-        <v>109500</v>
+        <v>132200</v>
       </c>
       <c r="H8" s="3">
-        <v>95500</v>
+        <v>108500</v>
       </c>
       <c r="I8" s="3">
-        <v>93500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>94600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>92700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,9 +753,12 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,17 +771,17 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
-        <v>9800</v>
-      </c>
       <c r="I9" s="3">
-        <v>11600</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,17 +810,17 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>102100</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>85700</v>
+        <v>101100</v>
       </c>
       <c r="I10" s="3">
-        <v>82000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>84900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>81200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,18 +944,18 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,33 +965,36 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8800</v>
+        <v>13100</v>
       </c>
       <c r="E15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F15" s="3">
         <v>5500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90000</v>
+        <v>153700</v>
       </c>
       <c r="E17" s="3">
-        <v>86500</v>
+        <v>89200</v>
       </c>
       <c r="F17" s="3">
-        <v>59000</v>
+        <v>85800</v>
       </c>
       <c r="G17" s="3">
-        <v>54800</v>
+        <v>58500</v>
       </c>
       <c r="H17" s="3">
-        <v>49400</v>
+        <v>54300</v>
       </c>
       <c r="I17" s="3">
-        <v>51100</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>49000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>50700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>47000</v>
+        <v>22500</v>
       </c>
       <c r="E18" s="3">
-        <v>74400</v>
+        <v>46600</v>
       </c>
       <c r="F18" s="3">
-        <v>74400</v>
+        <v>73700</v>
       </c>
       <c r="G18" s="3">
-        <v>54700</v>
+        <v>73800</v>
       </c>
       <c r="H18" s="3">
-        <v>46000</v>
+        <v>54300</v>
       </c>
       <c r="I18" s="3">
-        <v>42400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>45600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>11800</v>
       </c>
       <c r="E20" s="3">
-        <v>18300</v>
+        <v>5600</v>
       </c>
       <c r="F20" s="3">
-        <v>4100</v>
+        <v>18100</v>
       </c>
       <c r="G20" s="3">
-        <v>12800</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>7100</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62500</v>
+        <v>48600</v>
       </c>
       <c r="E21" s="3">
-        <v>98600</v>
+        <v>61800</v>
       </c>
       <c r="F21" s="3">
-        <v>82300</v>
+        <v>97700</v>
       </c>
       <c r="G21" s="3">
-        <v>71200</v>
+        <v>81500</v>
       </c>
       <c r="H21" s="3">
-        <v>58300</v>
+        <v>70500</v>
       </c>
       <c r="I21" s="3">
-        <v>55300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>57800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>54700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,32 +1191,35 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52200</v>
+        <v>32400</v>
       </c>
       <c r="E23" s="3">
-        <v>92300</v>
+        <v>51700</v>
       </c>
       <c r="F23" s="3">
-        <v>78400</v>
+        <v>91400</v>
       </c>
       <c r="G23" s="3">
-        <v>67300</v>
+        <v>77700</v>
       </c>
       <c r="H23" s="3">
-        <v>53100</v>
+        <v>66700</v>
       </c>
       <c r="I23" s="3">
-        <v>49100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>52600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>48600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="E24" s="3">
-        <v>27900</v>
+        <v>16100</v>
       </c>
       <c r="F24" s="3">
-        <v>22500</v>
+        <v>27700</v>
       </c>
       <c r="G24" s="3">
-        <v>26900</v>
+        <v>22300</v>
       </c>
       <c r="H24" s="3">
-        <v>12400</v>
+        <v>26700</v>
       </c>
       <c r="I24" s="3">
-        <v>11800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11700</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35900</v>
+        <v>16500</v>
       </c>
       <c r="E26" s="3">
-        <v>64300</v>
+        <v>35600</v>
       </c>
       <c r="F26" s="3">
-        <v>55900</v>
+        <v>63700</v>
       </c>
       <c r="G26" s="3">
-        <v>40400</v>
+        <v>55400</v>
       </c>
       <c r="H26" s="3">
-        <v>40700</v>
+        <v>40000</v>
       </c>
       <c r="I26" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>40300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>36900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38500</v>
+        <v>17100</v>
       </c>
       <c r="E27" s="3">
-        <v>65200</v>
+        <v>38200</v>
       </c>
       <c r="F27" s="3">
-        <v>54800</v>
+        <v>64700</v>
       </c>
       <c r="G27" s="3">
-        <v>40300</v>
+        <v>54300</v>
       </c>
       <c r="H27" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="I27" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>38800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>34400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>-11800</v>
       </c>
       <c r="E32" s="3">
-        <v>-18300</v>
+        <v>-5600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4100</v>
+        <v>-18100</v>
       </c>
       <c r="G32" s="3">
-        <v>-12800</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-7100</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-6600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38500</v>
+        <v>17100</v>
       </c>
       <c r="E33" s="3">
-        <v>65200</v>
+        <v>38200</v>
       </c>
       <c r="F33" s="3">
-        <v>54800</v>
+        <v>64700</v>
       </c>
       <c r="G33" s="3">
-        <v>40300</v>
+        <v>54300</v>
       </c>
       <c r="H33" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="I33" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>38800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>34400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38500</v>
+        <v>17100</v>
       </c>
       <c r="E35" s="3">
-        <v>65200</v>
+        <v>38200</v>
       </c>
       <c r="F35" s="3">
-        <v>54800</v>
+        <v>64700</v>
       </c>
       <c r="G35" s="3">
-        <v>40300</v>
+        <v>54300</v>
       </c>
       <c r="H35" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="I35" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>38800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>34400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90100</v>
+        <v>43600</v>
       </c>
       <c r="E41" s="3">
-        <v>47100</v>
+        <v>89300</v>
       </c>
       <c r="F41" s="3">
-        <v>186300</v>
+        <v>46700</v>
       </c>
       <c r="G41" s="3">
-        <v>23900</v>
+        <v>184600</v>
       </c>
       <c r="H41" s="3">
-        <v>132100</v>
+        <v>23700</v>
       </c>
       <c r="I41" s="3">
-        <v>74500</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>131000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>73900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1854,35 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80200</v>
+        <v>104500</v>
       </c>
       <c r="E42" s="3">
-        <v>94900</v>
+        <v>79500</v>
       </c>
       <c r="F42" s="3">
-        <v>146400</v>
+        <v>94100</v>
       </c>
       <c r="G42" s="3">
-        <v>160600</v>
+        <v>145000</v>
       </c>
       <c r="H42" s="3">
-        <v>40300</v>
+        <v>159100</v>
       </c>
       <c r="I42" s="3">
-        <v>58700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>39900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>58200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49100</v>
+        <v>102600</v>
       </c>
       <c r="E43" s="3">
-        <v>31500</v>
+        <v>48700</v>
       </c>
       <c r="F43" s="3">
-        <v>29100</v>
+        <v>31200</v>
       </c>
       <c r="G43" s="3">
-        <v>9400</v>
+        <v>28800</v>
       </c>
       <c r="H43" s="3">
-        <v>27400</v>
+        <v>9300</v>
       </c>
       <c r="I43" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>27100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>17400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,23 +1932,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -1864,8 +1959,8 @@
       <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1876,32 +1971,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13400</v>
+        <v>16400</v>
       </c>
       <c r="E45" s="3">
-        <v>12500</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>8600</v>
+        <v>12400</v>
       </c>
       <c r="G45" s="3">
-        <v>24700</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
-        <v>35900</v>
+        <v>24500</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>35500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>233500</v>
+        <v>267400</v>
       </c>
       <c r="E46" s="3">
-        <v>186400</v>
+        <v>231400</v>
       </c>
       <c r="F46" s="3">
-        <v>361100</v>
+        <v>184800</v>
       </c>
       <c r="G46" s="3">
-        <v>218900</v>
+        <v>357800</v>
       </c>
       <c r="H46" s="3">
-        <v>236000</v>
+        <v>216900</v>
       </c>
       <c r="I46" s="3">
-        <v>166700</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>233800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>165200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,32 +2049,35 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>153100</v>
+        <v>94300</v>
       </c>
       <c r="E47" s="3">
-        <v>159200</v>
+        <v>151700</v>
       </c>
       <c r="F47" s="3">
-        <v>63000</v>
+        <v>157700</v>
       </c>
       <c r="G47" s="3">
-        <v>18400</v>
+        <v>62500</v>
       </c>
       <c r="H47" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I47" s="3">
         <v>5200</v>
       </c>
-      <c r="I47" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>11900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>98500</v>
+        <v>152700</v>
       </c>
       <c r="E48" s="3">
-        <v>90600</v>
+        <v>97600</v>
       </c>
       <c r="F48" s="3">
-        <v>65500</v>
+        <v>89800</v>
       </c>
       <c r="G48" s="3">
-        <v>14200</v>
+        <v>65000</v>
       </c>
       <c r="H48" s="3">
-        <v>16300</v>
+        <v>14100</v>
       </c>
       <c r="I48" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>20600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,33 +2127,36 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87200</v>
+        <v>93600</v>
       </c>
       <c r="E49" s="3">
-        <v>87900</v>
+        <v>86400</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>87100</v>
       </c>
       <c r="G49" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,33 +2244,36 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31100</v>
+        <v>73600</v>
       </c>
       <c r="E52" s="3">
-        <v>38300</v>
+        <v>30900</v>
       </c>
       <c r="F52" s="3">
-        <v>23900</v>
+        <v>37900</v>
       </c>
       <c r="G52" s="3">
-        <v>6200</v>
+        <v>23700</v>
       </c>
       <c r="H52" s="3">
-        <v>17800</v>
+        <v>6100</v>
       </c>
       <c r="I52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J52" s="3">
         <v>6500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>603400</v>
+        <v>681500</v>
       </c>
       <c r="E54" s="3">
-        <v>562400</v>
+        <v>598000</v>
       </c>
       <c r="F54" s="3">
-        <v>453800</v>
+        <v>557300</v>
       </c>
       <c r="G54" s="3">
-        <v>258800</v>
+        <v>449700</v>
       </c>
       <c r="H54" s="3">
-        <v>276400</v>
+        <v>256400</v>
       </c>
       <c r="I54" s="3">
-        <v>207400</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>273900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>205500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,22 +2398,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
-        <v>2300</v>
-      </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -2292,8 +2422,8 @@
       <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>1100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,23 +2434,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22100</v>
+        <v>59300</v>
       </c>
       <c r="E58" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F58" s="3">
         <v>8800</v>
       </c>
-      <c r="F58" s="3">
-        <v>17700</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>17500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2337,35 +2470,38 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103100</v>
+        <v>119700</v>
       </c>
       <c r="E59" s="3">
-        <v>106100</v>
+        <v>102200</v>
       </c>
       <c r="F59" s="3">
-        <v>190700</v>
+        <v>105100</v>
       </c>
       <c r="G59" s="3">
-        <v>96600</v>
+        <v>189000</v>
       </c>
       <c r="H59" s="3">
-        <v>71300</v>
+        <v>95800</v>
       </c>
       <c r="I59" s="3">
-        <v>52800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>70700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>52300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>128100</v>
+        <v>182500</v>
       </c>
       <c r="E60" s="3">
-        <v>117200</v>
+        <v>127000</v>
       </c>
       <c r="F60" s="3">
-        <v>104600</v>
+        <v>116100</v>
       </c>
       <c r="G60" s="3">
-        <v>97700</v>
+        <v>103700</v>
       </c>
       <c r="H60" s="3">
-        <v>72400</v>
+        <v>96800</v>
       </c>
       <c r="I60" s="3">
-        <v>53900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>71800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>53400</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,14 +2551,17 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>44100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2448,32 +2590,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>143700</v>
+        <v>156600</v>
       </c>
       <c r="E62" s="3">
-        <v>147900</v>
+        <v>142500</v>
       </c>
       <c r="F62" s="3">
-        <v>159700</v>
+        <v>146600</v>
       </c>
       <c r="G62" s="3">
-        <v>53100</v>
+        <v>158200</v>
       </c>
       <c r="H62" s="3">
-        <v>52700</v>
+        <v>52600</v>
       </c>
       <c r="I62" s="3">
-        <v>38900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>52200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>38600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>293500</v>
+        <v>410300</v>
       </c>
       <c r="E66" s="3">
-        <v>288100</v>
+        <v>290900</v>
       </c>
       <c r="F66" s="3">
-        <v>210500</v>
+        <v>285500</v>
       </c>
       <c r="G66" s="3">
-        <v>150900</v>
+        <v>208600</v>
       </c>
       <c r="H66" s="3">
-        <v>125200</v>
+        <v>149500</v>
       </c>
       <c r="I66" s="3">
-        <v>93000</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>124100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>92100</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>84000</v>
+        <v>47600</v>
       </c>
       <c r="E72" s="3">
-        <v>45500</v>
+        <v>83200</v>
       </c>
       <c r="F72" s="3">
-        <v>37200</v>
+        <v>45100</v>
       </c>
       <c r="G72" s="3">
-        <v>32900</v>
+        <v>36900</v>
       </c>
       <c r="H72" s="3">
-        <v>82000</v>
+        <v>32600</v>
       </c>
       <c r="I72" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>81300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>45000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>309900</v>
+        <v>271300</v>
       </c>
       <c r="E76" s="3">
-        <v>274300</v>
+        <v>307100</v>
       </c>
       <c r="F76" s="3">
-        <v>243300</v>
+        <v>271800</v>
       </c>
       <c r="G76" s="3">
-        <v>107900</v>
+        <v>241100</v>
       </c>
       <c r="H76" s="3">
-        <v>151200</v>
+        <v>106900</v>
       </c>
       <c r="I76" s="3">
-        <v>114400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>149900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>113400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38500</v>
+        <v>17100</v>
       </c>
       <c r="E81" s="3">
-        <v>65200</v>
+        <v>38200</v>
       </c>
       <c r="F81" s="3">
-        <v>54800</v>
+        <v>64700</v>
       </c>
       <c r="G81" s="3">
-        <v>40300</v>
+        <v>54300</v>
       </c>
       <c r="H81" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="I81" s="3">
-        <v>34700</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>38800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>34400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9700</v>
+        <v>14300</v>
       </c>
       <c r="E83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F83" s="3">
         <v>5900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3800</v>
       </c>
       <c r="G83" s="3">
         <v>3700</v>
       </c>
       <c r="H83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43500</v>
+        <v>52700</v>
       </c>
       <c r="E89" s="3">
-        <v>75700</v>
+        <v>43100</v>
       </c>
       <c r="F89" s="3">
-        <v>81800</v>
+        <v>75100</v>
       </c>
       <c r="G89" s="3">
-        <v>69200</v>
+        <v>81000</v>
       </c>
       <c r="H89" s="3">
-        <v>65400</v>
+        <v>68600</v>
       </c>
       <c r="I89" s="3">
-        <v>52700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>64800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>52200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16500</v>
+        <v>-81900</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-16300</v>
       </c>
       <c r="F91" s="3">
-        <v>-20400</v>
+        <v>-31200</v>
       </c>
       <c r="G91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16400</v>
+        <v>-135600</v>
       </c>
       <c r="E94" s="3">
-        <v>-179800</v>
+        <v>-16300</v>
       </c>
       <c r="F94" s="3">
-        <v>-26800</v>
+        <v>-178200</v>
       </c>
       <c r="G94" s="3">
-        <v>-109800</v>
+        <v>-26500</v>
       </c>
       <c r="H94" s="3">
-        <v>10900</v>
+        <v>-108800</v>
       </c>
       <c r="I94" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-27200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,22 +3758,23 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-46800</v>
       </c>
       <c r="E96" s="3">
-        <v>-33400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-29600</v>
+        <v>-33100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-29300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17000</v>
+        <v>37300</v>
       </c>
       <c r="E100" s="3">
-        <v>-31300</v>
+        <v>16900</v>
       </c>
       <c r="F100" s="3">
-        <v>97700</v>
+        <v>-31000</v>
       </c>
       <c r="G100" s="3">
-        <v>-95100</v>
+        <v>96800</v>
       </c>
       <c r="H100" s="3">
-        <v>-19600</v>
+        <v>-94200</v>
       </c>
       <c r="I100" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-19400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,33 +3950,36 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>9700</v>
-      </c>
       <c r="G101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43000</v>
+        <v>-45700</v>
       </c>
       <c r="E102" s="3">
-        <v>-136300</v>
+        <v>42600</v>
       </c>
       <c r="F102" s="3">
-        <v>162400</v>
+        <v>-135100</v>
       </c>
       <c r="G102" s="3">
-        <v>-135900</v>
+        <v>161000</v>
       </c>
       <c r="H102" s="3">
-        <v>57600</v>
+        <v>-134600</v>
       </c>
       <c r="I102" s="3">
-        <v>18400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>57100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>18200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>176100</v>
+        <v>167900</v>
       </c>
       <c r="E8" s="3">
-        <v>135800</v>
+        <v>129500</v>
       </c>
       <c r="F8" s="3">
-        <v>159400</v>
+        <v>152000</v>
       </c>
       <c r="G8" s="3">
-        <v>132200</v>
+        <v>126100</v>
       </c>
       <c r="H8" s="3">
-        <v>108500</v>
+        <v>103500</v>
       </c>
       <c r="I8" s="3">
-        <v>94600</v>
+        <v>90200</v>
       </c>
       <c r="J8" s="3">
-        <v>92700</v>
+        <v>88400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="I9" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="J9" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -814,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>101100</v>
+        <v>96400</v>
       </c>
       <c r="I10" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="J10" s="3">
-        <v>81200</v>
+        <v>77400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="E15" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="F15" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153700</v>
+        <v>146500</v>
       </c>
       <c r="E17" s="3">
-        <v>89200</v>
+        <v>85000</v>
       </c>
       <c r="F17" s="3">
-        <v>85800</v>
+        <v>81700</v>
       </c>
       <c r="G17" s="3">
-        <v>58500</v>
+        <v>55700</v>
       </c>
       <c r="H17" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="I17" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="J17" s="3">
-        <v>50700</v>
+        <v>48300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="E18" s="3">
-        <v>46600</v>
+        <v>44400</v>
       </c>
       <c r="F18" s="3">
-        <v>73700</v>
+        <v>70200</v>
       </c>
       <c r="G18" s="3">
-        <v>73800</v>
+        <v>70300</v>
       </c>
       <c r="H18" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="I18" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="J18" s="3">
-        <v>42000</v>
+        <v>40100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F20" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="I20" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>48600</v>
+        <v>46200</v>
       </c>
       <c r="E21" s="3">
-        <v>61800</v>
+        <v>58900</v>
       </c>
       <c r="F21" s="3">
-        <v>97700</v>
+        <v>93100</v>
       </c>
       <c r="G21" s="3">
-        <v>81500</v>
+        <v>77700</v>
       </c>
       <c r="H21" s="3">
-        <v>70500</v>
+        <v>67200</v>
       </c>
       <c r="I21" s="3">
-        <v>57800</v>
+        <v>55000</v>
       </c>
       <c r="J21" s="3">
-        <v>54700</v>
+        <v>52100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="E23" s="3">
-        <v>51700</v>
+        <v>49300</v>
       </c>
       <c r="F23" s="3">
-        <v>91400</v>
+        <v>87200</v>
       </c>
       <c r="G23" s="3">
-        <v>77700</v>
+        <v>74100</v>
       </c>
       <c r="H23" s="3">
-        <v>66700</v>
+        <v>63600</v>
       </c>
       <c r="I23" s="3">
-        <v>52600</v>
+        <v>50100</v>
       </c>
       <c r="J23" s="3">
-        <v>48600</v>
+        <v>46300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="E24" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="F24" s="3">
-        <v>27700</v>
+        <v>26400</v>
       </c>
       <c r="G24" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="H24" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="I24" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="J24" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="E26" s="3">
-        <v>35600</v>
+        <v>33900</v>
       </c>
       <c r="F26" s="3">
-        <v>63700</v>
+        <v>60800</v>
       </c>
       <c r="G26" s="3">
-        <v>55400</v>
+        <v>52800</v>
       </c>
       <c r="H26" s="3">
-        <v>40000</v>
+        <v>38200</v>
       </c>
       <c r="I26" s="3">
-        <v>40300</v>
+        <v>38500</v>
       </c>
       <c r="J26" s="3">
-        <v>36900</v>
+        <v>35200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E27" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="F27" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="G27" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="H27" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="I27" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="J27" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="F32" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
-        <v>-12600</v>
+        <v>-12100</v>
       </c>
       <c r="I32" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E33" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="F33" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="G33" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="H33" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="I33" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="J33" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E35" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="F35" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="G35" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="H35" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="I35" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="J35" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="E41" s="3">
-        <v>89300</v>
+        <v>85100</v>
       </c>
       <c r="F41" s="3">
-        <v>46700</v>
+        <v>44500</v>
       </c>
       <c r="G41" s="3">
-        <v>184600</v>
+        <v>176000</v>
       </c>
       <c r="H41" s="3">
-        <v>23700</v>
+        <v>22500</v>
       </c>
       <c r="I41" s="3">
-        <v>131000</v>
+        <v>124800</v>
       </c>
       <c r="J41" s="3">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104500</v>
+        <v>99600</v>
       </c>
       <c r="E42" s="3">
-        <v>79500</v>
+        <v>75800</v>
       </c>
       <c r="F42" s="3">
-        <v>94100</v>
+        <v>89700</v>
       </c>
       <c r="G42" s="3">
-        <v>145000</v>
+        <v>138300</v>
       </c>
       <c r="H42" s="3">
-        <v>159100</v>
+        <v>151700</v>
       </c>
       <c r="I42" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="J42" s="3">
-        <v>58200</v>
+        <v>55500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>102600</v>
+        <v>97800</v>
       </c>
       <c r="E43" s="3">
-        <v>48700</v>
+        <v>46400</v>
       </c>
       <c r="F43" s="3">
-        <v>31200</v>
+        <v>29800</v>
       </c>
       <c r="G43" s="3">
-        <v>28800</v>
+        <v>27400</v>
       </c>
       <c r="H43" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="I43" s="3">
-        <v>27100</v>
+        <v>25900</v>
       </c>
       <c r="J43" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1945,7 +1945,7 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>11800</v>
       </c>
       <c r="G45" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="H45" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="I45" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="J45" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>267400</v>
+        <v>254900</v>
       </c>
       <c r="E46" s="3">
-        <v>231400</v>
+        <v>220500</v>
       </c>
       <c r="F46" s="3">
-        <v>184800</v>
+        <v>176100</v>
       </c>
       <c r="G46" s="3">
-        <v>357800</v>
+        <v>341100</v>
       </c>
       <c r="H46" s="3">
-        <v>216900</v>
+        <v>206800</v>
       </c>
       <c r="I46" s="3">
-        <v>233800</v>
+        <v>222900</v>
       </c>
       <c r="J46" s="3">
-        <v>165200</v>
+        <v>157500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94300</v>
+        <v>89900</v>
       </c>
       <c r="E47" s="3">
-        <v>151700</v>
+        <v>144600</v>
       </c>
       <c r="F47" s="3">
-        <v>157700</v>
+        <v>150400</v>
       </c>
       <c r="G47" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="H47" s="3">
-        <v>18300</v>
+        <v>17400</v>
       </c>
       <c r="I47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J47" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152700</v>
+        <v>145500</v>
       </c>
       <c r="E48" s="3">
-        <v>97600</v>
+        <v>93100</v>
       </c>
       <c r="F48" s="3">
-        <v>89800</v>
+        <v>85600</v>
       </c>
       <c r="G48" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="H48" s="3">
-        <v>14100</v>
+        <v>13500</v>
       </c>
       <c r="I48" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="J48" s="3">
-        <v>20600</v>
+        <v>19700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>93600</v>
+        <v>89200</v>
       </c>
       <c r="E49" s="3">
-        <v>86400</v>
+        <v>82400</v>
       </c>
       <c r="F49" s="3">
-        <v>87100</v>
+        <v>83000</v>
       </c>
       <c r="G49" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="H49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="3">
         <v>1200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="E52" s="3">
-        <v>30900</v>
+        <v>29400</v>
       </c>
       <c r="F52" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="G52" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="J52" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>681500</v>
+        <v>649700</v>
       </c>
       <c r="E54" s="3">
-        <v>598000</v>
+        <v>570000</v>
       </c>
       <c r="F54" s="3">
-        <v>557300</v>
+        <v>531300</v>
       </c>
       <c r="G54" s="3">
-        <v>449700</v>
+        <v>428700</v>
       </c>
       <c r="H54" s="3">
-        <v>256400</v>
+        <v>244400</v>
       </c>
       <c r="I54" s="3">
-        <v>273900</v>
+        <v>261100</v>
       </c>
       <c r="J54" s="3">
-        <v>205500</v>
+        <v>195900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="E58" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="F58" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="G58" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="E59" s="3">
-        <v>102200</v>
+        <v>97400</v>
       </c>
       <c r="F59" s="3">
-        <v>105100</v>
+        <v>100200</v>
       </c>
       <c r="G59" s="3">
-        <v>189000</v>
+        <v>180100</v>
       </c>
       <c r="H59" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="I59" s="3">
-        <v>70700</v>
+        <v>67300</v>
       </c>
       <c r="J59" s="3">
-        <v>52300</v>
+        <v>49900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>182500</v>
+        <v>174000</v>
       </c>
       <c r="E60" s="3">
-        <v>127000</v>
+        <v>121000</v>
       </c>
       <c r="F60" s="3">
-        <v>116100</v>
+        <v>110700</v>
       </c>
       <c r="G60" s="3">
-        <v>103700</v>
+        <v>98800</v>
       </c>
       <c r="H60" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="I60" s="3">
-        <v>71800</v>
+        <v>68400</v>
       </c>
       <c r="J60" s="3">
-        <v>53400</v>
+        <v>50900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>156600</v>
+        <v>149300</v>
       </c>
       <c r="E62" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="F62" s="3">
-        <v>146600</v>
+        <v>139700</v>
       </c>
       <c r="G62" s="3">
-        <v>158200</v>
+        <v>150800</v>
       </c>
       <c r="H62" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="I62" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="J62" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>410300</v>
+        <v>391100</v>
       </c>
       <c r="E66" s="3">
-        <v>290900</v>
+        <v>277300</v>
       </c>
       <c r="F66" s="3">
-        <v>285500</v>
+        <v>272200</v>
       </c>
       <c r="G66" s="3">
-        <v>208600</v>
+        <v>198900</v>
       </c>
       <c r="H66" s="3">
-        <v>149500</v>
+        <v>142500</v>
       </c>
       <c r="I66" s="3">
-        <v>124100</v>
+        <v>118300</v>
       </c>
       <c r="J66" s="3">
-        <v>92100</v>
+        <v>87800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47600</v>
+        <v>45400</v>
       </c>
       <c r="E72" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="F72" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="G72" s="3">
-        <v>36900</v>
+        <v>35200</v>
       </c>
       <c r="H72" s="3">
-        <v>32600</v>
+        <v>31100</v>
       </c>
       <c r="I72" s="3">
-        <v>81300</v>
+        <v>77500</v>
       </c>
       <c r="J72" s="3">
-        <v>45000</v>
+        <v>42900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>271300</v>
+        <v>258600</v>
       </c>
       <c r="E76" s="3">
-        <v>307100</v>
+        <v>292700</v>
       </c>
       <c r="F76" s="3">
-        <v>271800</v>
+        <v>259100</v>
       </c>
       <c r="G76" s="3">
-        <v>241100</v>
+        <v>229800</v>
       </c>
       <c r="H76" s="3">
-        <v>106900</v>
+        <v>101900</v>
       </c>
       <c r="I76" s="3">
-        <v>149900</v>
+        <v>142800</v>
       </c>
       <c r="J76" s="3">
-        <v>113400</v>
+        <v>108100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E81" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="F81" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="G81" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="H81" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="I81" s="3">
-        <v>38800</v>
+        <v>37000</v>
       </c>
       <c r="J81" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J83" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="E89" s="3">
-        <v>43100</v>
+        <v>41100</v>
       </c>
       <c r="F89" s="3">
-        <v>75100</v>
+        <v>71500</v>
       </c>
       <c r="G89" s="3">
-        <v>81000</v>
+        <v>77200</v>
       </c>
       <c r="H89" s="3">
-        <v>68600</v>
+        <v>65300</v>
       </c>
       <c r="I89" s="3">
-        <v>64800</v>
+        <v>61700</v>
       </c>
       <c r="J89" s="3">
-        <v>52200</v>
+        <v>49700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-81900</v>
+        <v>-78100</v>
       </c>
       <c r="E91" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="F91" s="3">
-        <v>-31200</v>
+        <v>-29700</v>
       </c>
       <c r="G91" s="3">
-        <v>-20200</v>
+        <v>-19300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135600</v>
+        <v>-129200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="F94" s="3">
-        <v>-178200</v>
+        <v>-169800</v>
       </c>
       <c r="G94" s="3">
-        <v>-26500</v>
+        <v>-25300</v>
       </c>
       <c r="H94" s="3">
-        <v>-108800</v>
+        <v>-103700</v>
       </c>
       <c r="I94" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="J94" s="3">
-        <v>-27200</v>
+        <v>-26000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46800</v>
+        <v>-44600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-33100</v>
+        <v>-31600</v>
       </c>
       <c r="G96" s="3">
-        <v>-29300</v>
+        <v>-27900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>37300</v>
+        <v>35600</v>
       </c>
       <c r="E100" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="F100" s="3">
-        <v>-31000</v>
+        <v>-29500</v>
       </c>
       <c r="G100" s="3">
-        <v>96800</v>
+        <v>92300</v>
       </c>
       <c r="H100" s="3">
-        <v>-94200</v>
+        <v>-89800</v>
       </c>
       <c r="I100" s="3">
-        <v>-19400</v>
+        <v>-18500</v>
       </c>
       <c r="J100" s="3">
-        <v>-7500</v>
+        <v>-7100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3969,7 +3969,7 @@
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-45700</v>
+        <v>-43600</v>
       </c>
       <c r="E102" s="3">
-        <v>42600</v>
+        <v>40600</v>
       </c>
       <c r="F102" s="3">
-        <v>-135100</v>
+        <v>-128800</v>
       </c>
       <c r="G102" s="3">
-        <v>161000</v>
+        <v>153400</v>
       </c>
       <c r="H102" s="3">
-        <v>-134600</v>
+        <v>-128300</v>
       </c>
       <c r="I102" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="J102" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>167900</v>
+        <v>173200</v>
       </c>
       <c r="E8" s="3">
-        <v>129500</v>
+        <v>133600</v>
       </c>
       <c r="F8" s="3">
-        <v>152000</v>
+        <v>156800</v>
       </c>
       <c r="G8" s="3">
-        <v>126100</v>
+        <v>130100</v>
       </c>
       <c r="H8" s="3">
-        <v>103500</v>
+        <v>106700</v>
       </c>
       <c r="I8" s="3">
-        <v>90200</v>
+        <v>93000</v>
       </c>
       <c r="J8" s="3">
-        <v>88400</v>
+        <v>91200</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="I9" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="J9" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -814,13 +814,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>96400</v>
+        <v>99500</v>
       </c>
       <c r="I10" s="3">
-        <v>80900</v>
+        <v>83500</v>
       </c>
       <c r="J10" s="3">
-        <v>77400</v>
+        <v>79900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="E15" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F15" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>146500</v>
+        <v>151100</v>
       </c>
       <c r="E17" s="3">
-        <v>85000</v>
+        <v>87700</v>
       </c>
       <c r="F17" s="3">
-        <v>81700</v>
+        <v>84300</v>
       </c>
       <c r="G17" s="3">
-        <v>55700</v>
+        <v>57500</v>
       </c>
       <c r="H17" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="I17" s="3">
-        <v>46700</v>
+        <v>48200</v>
       </c>
       <c r="J17" s="3">
-        <v>48300</v>
+        <v>49800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21400</v>
+        <v>22100</v>
       </c>
       <c r="E18" s="3">
-        <v>44400</v>
+        <v>45900</v>
       </c>
       <c r="F18" s="3">
-        <v>70200</v>
+        <v>72500</v>
       </c>
       <c r="G18" s="3">
-        <v>70300</v>
+        <v>72600</v>
       </c>
       <c r="H18" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="I18" s="3">
-        <v>43500</v>
+        <v>44800</v>
       </c>
       <c r="J18" s="3">
-        <v>40100</v>
+        <v>41300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>17300</v>
+        <v>17800</v>
       </c>
       <c r="G20" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J20" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>46200</v>
+        <v>47800</v>
       </c>
       <c r="E21" s="3">
-        <v>58900</v>
+        <v>60900</v>
       </c>
       <c r="F21" s="3">
-        <v>93100</v>
+        <v>96100</v>
       </c>
       <c r="G21" s="3">
-        <v>77700</v>
+        <v>80200</v>
       </c>
       <c r="H21" s="3">
-        <v>67200</v>
+        <v>69400</v>
       </c>
       <c r="I21" s="3">
-        <v>55000</v>
+        <v>56800</v>
       </c>
       <c r="J21" s="3">
-        <v>52100</v>
+        <v>53800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30900</v>
+        <v>31900</v>
       </c>
       <c r="E23" s="3">
-        <v>49300</v>
+        <v>50900</v>
       </c>
       <c r="F23" s="3">
-        <v>87200</v>
+        <v>89900</v>
       </c>
       <c r="G23" s="3">
-        <v>74100</v>
+        <v>76400</v>
       </c>
       <c r="H23" s="3">
-        <v>63600</v>
+        <v>65600</v>
       </c>
       <c r="I23" s="3">
-        <v>50100</v>
+        <v>51700</v>
       </c>
       <c r="J23" s="3">
-        <v>46300</v>
+        <v>47800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="E24" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="F24" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="G24" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="H24" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="J24" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="E26" s="3">
-        <v>33900</v>
+        <v>35000</v>
       </c>
       <c r="F26" s="3">
-        <v>60800</v>
+        <v>62700</v>
       </c>
       <c r="G26" s="3">
-        <v>52800</v>
+        <v>54500</v>
       </c>
       <c r="H26" s="3">
-        <v>38200</v>
+        <v>39400</v>
       </c>
       <c r="I26" s="3">
-        <v>38500</v>
+        <v>39700</v>
       </c>
       <c r="J26" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E27" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="F27" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="G27" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="H27" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="I27" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="J27" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>-17300</v>
+        <v>-17800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="H32" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="J32" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E33" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="F33" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="G33" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="H33" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="I33" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="J33" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E35" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="F35" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="G35" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="H35" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="I35" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="J35" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41500</v>
+        <v>42900</v>
       </c>
       <c r="E41" s="3">
-        <v>85100</v>
+        <v>87800</v>
       </c>
       <c r="F41" s="3">
-        <v>44500</v>
+        <v>45900</v>
       </c>
       <c r="G41" s="3">
-        <v>176000</v>
+        <v>181500</v>
       </c>
       <c r="H41" s="3">
-        <v>22500</v>
+        <v>23300</v>
       </c>
       <c r="I41" s="3">
-        <v>124800</v>
+        <v>128800</v>
       </c>
       <c r="J41" s="3">
-        <v>70400</v>
+        <v>72700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99600</v>
+        <v>102800</v>
       </c>
       <c r="E42" s="3">
-        <v>75800</v>
+        <v>78200</v>
       </c>
       <c r="F42" s="3">
-        <v>89700</v>
+        <v>92500</v>
       </c>
       <c r="G42" s="3">
-        <v>138300</v>
+        <v>142600</v>
       </c>
       <c r="H42" s="3">
-        <v>151700</v>
+        <v>156500</v>
       </c>
       <c r="I42" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="J42" s="3">
-        <v>55500</v>
+        <v>57200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>97800</v>
+        <v>100900</v>
       </c>
       <c r="E43" s="3">
-        <v>46400</v>
+        <v>47900</v>
       </c>
       <c r="F43" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="G43" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="H43" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I43" s="3">
-        <v>25900</v>
+        <v>26700</v>
       </c>
       <c r="J43" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="F45" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>23400</v>
+        <v>24100</v>
       </c>
       <c r="I45" s="3">
-        <v>33900</v>
+        <v>35000</v>
       </c>
       <c r="J45" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254900</v>
+        <v>263000</v>
       </c>
       <c r="E46" s="3">
-        <v>220500</v>
+        <v>227500</v>
       </c>
       <c r="F46" s="3">
-        <v>176100</v>
+        <v>181700</v>
       </c>
       <c r="G46" s="3">
-        <v>341100</v>
+        <v>351900</v>
       </c>
       <c r="H46" s="3">
-        <v>206800</v>
+        <v>213300</v>
       </c>
       <c r="I46" s="3">
-        <v>222900</v>
+        <v>230000</v>
       </c>
       <c r="J46" s="3">
-        <v>157500</v>
+        <v>162500</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89900</v>
+        <v>92700</v>
       </c>
       <c r="E47" s="3">
-        <v>144600</v>
+        <v>149200</v>
       </c>
       <c r="F47" s="3">
-        <v>150400</v>
+        <v>155100</v>
       </c>
       <c r="G47" s="3">
-        <v>59500</v>
+        <v>61400</v>
       </c>
       <c r="H47" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="I47" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J47" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>145500</v>
+        <v>150100</v>
       </c>
       <c r="E48" s="3">
-        <v>93100</v>
+        <v>96000</v>
       </c>
       <c r="F48" s="3">
-        <v>85600</v>
+        <v>88300</v>
       </c>
       <c r="G48" s="3">
-        <v>61900</v>
+        <v>63900</v>
       </c>
       <c r="H48" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="I48" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="J48" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>89200</v>
+        <v>92100</v>
       </c>
       <c r="E49" s="3">
-        <v>82400</v>
+        <v>85000</v>
       </c>
       <c r="F49" s="3">
-        <v>83000</v>
+        <v>85600</v>
       </c>
       <c r="G49" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
       <c r="J49" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70200</v>
+        <v>72400</v>
       </c>
       <c r="E52" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="F52" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="G52" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="H52" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I52" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="J52" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>649700</v>
+        <v>670300</v>
       </c>
       <c r="E54" s="3">
-        <v>570000</v>
+        <v>588100</v>
       </c>
       <c r="F54" s="3">
-        <v>531300</v>
+        <v>548100</v>
       </c>
       <c r="G54" s="3">
-        <v>428700</v>
+        <v>442300</v>
       </c>
       <c r="H54" s="3">
-        <v>244400</v>
+        <v>252200</v>
       </c>
       <c r="I54" s="3">
-        <v>261100</v>
+        <v>269400</v>
       </c>
       <c r="J54" s="3">
-        <v>195900</v>
+        <v>202100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,13 +2405,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
@@ -2444,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="E58" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="F58" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G58" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114100</v>
+        <v>117700</v>
       </c>
       <c r="E59" s="3">
-        <v>97400</v>
+        <v>100500</v>
       </c>
       <c r="F59" s="3">
-        <v>100200</v>
+        <v>103400</v>
       </c>
       <c r="G59" s="3">
-        <v>180100</v>
+        <v>185900</v>
       </c>
       <c r="H59" s="3">
-        <v>91300</v>
+        <v>94200</v>
       </c>
       <c r="I59" s="3">
-        <v>67300</v>
+        <v>69500</v>
       </c>
       <c r="J59" s="3">
-        <v>49900</v>
+        <v>51500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>174000</v>
+        <v>179500</v>
       </c>
       <c r="E60" s="3">
-        <v>121000</v>
+        <v>124900</v>
       </c>
       <c r="F60" s="3">
-        <v>110700</v>
+        <v>114200</v>
       </c>
       <c r="G60" s="3">
-        <v>98800</v>
+        <v>102000</v>
       </c>
       <c r="H60" s="3">
-        <v>92300</v>
+        <v>95200</v>
       </c>
       <c r="I60" s="3">
-        <v>68400</v>
+        <v>70600</v>
       </c>
       <c r="J60" s="3">
-        <v>50900</v>
+        <v>52500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2561,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>149300</v>
+        <v>154000</v>
       </c>
       <c r="E62" s="3">
-        <v>135800</v>
+        <v>140100</v>
       </c>
       <c r="F62" s="3">
-        <v>139700</v>
+        <v>144100</v>
       </c>
       <c r="G62" s="3">
-        <v>150800</v>
+        <v>155600</v>
       </c>
       <c r="H62" s="3">
-        <v>50200</v>
+        <v>51800</v>
       </c>
       <c r="I62" s="3">
-        <v>49700</v>
+        <v>51300</v>
       </c>
       <c r="J62" s="3">
-        <v>36800</v>
+        <v>37900</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>391100</v>
+        <v>403500</v>
       </c>
       <c r="E66" s="3">
-        <v>277300</v>
+        <v>286100</v>
       </c>
       <c r="F66" s="3">
-        <v>272200</v>
+        <v>280800</v>
       </c>
       <c r="G66" s="3">
-        <v>198900</v>
+        <v>205200</v>
       </c>
       <c r="H66" s="3">
-        <v>142500</v>
+        <v>147000</v>
       </c>
       <c r="I66" s="3">
-        <v>118300</v>
+        <v>122000</v>
       </c>
       <c r="J66" s="3">
-        <v>87800</v>
+        <v>90600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45400</v>
+        <v>46900</v>
       </c>
       <c r="E72" s="3">
-        <v>79300</v>
+        <v>81900</v>
       </c>
       <c r="F72" s="3">
-        <v>43000</v>
+        <v>44300</v>
       </c>
       <c r="G72" s="3">
-        <v>35200</v>
+        <v>36300</v>
       </c>
       <c r="H72" s="3">
-        <v>31100</v>
+        <v>32000</v>
       </c>
       <c r="I72" s="3">
-        <v>77500</v>
+        <v>79900</v>
       </c>
       <c r="J72" s="3">
-        <v>42900</v>
+        <v>44300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>258600</v>
+        <v>266800</v>
       </c>
       <c r="E76" s="3">
-        <v>292700</v>
+        <v>302000</v>
       </c>
       <c r="F76" s="3">
-        <v>259100</v>
+        <v>267300</v>
       </c>
       <c r="G76" s="3">
-        <v>229800</v>
+        <v>237100</v>
       </c>
       <c r="H76" s="3">
-        <v>101900</v>
+        <v>105200</v>
       </c>
       <c r="I76" s="3">
-        <v>142800</v>
+        <v>147400</v>
       </c>
       <c r="J76" s="3">
-        <v>108100</v>
+        <v>111500</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="E81" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="F81" s="3">
-        <v>61600</v>
+        <v>63600</v>
       </c>
       <c r="G81" s="3">
-        <v>51700</v>
+        <v>53400</v>
       </c>
       <c r="H81" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="I81" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="J81" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="F83" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
-        <v>3500</v>
-      </c>
       <c r="I83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J83" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50200</v>
+        <v>51800</v>
       </c>
       <c r="E89" s="3">
-        <v>41100</v>
+        <v>42400</v>
       </c>
       <c r="F89" s="3">
-        <v>71500</v>
+        <v>73800</v>
       </c>
       <c r="G89" s="3">
-        <v>77200</v>
+        <v>79700</v>
       </c>
       <c r="H89" s="3">
-        <v>65300</v>
+        <v>67400</v>
       </c>
       <c r="I89" s="3">
-        <v>61700</v>
+        <v>63700</v>
       </c>
       <c r="J89" s="3">
-        <v>49700</v>
+        <v>51300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-78100</v>
+        <v>-80600</v>
       </c>
       <c r="E91" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="F91" s="3">
-        <v>-29700</v>
+        <v>-30600</v>
       </c>
       <c r="G91" s="3">
-        <v>-19300</v>
+        <v>-19900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-129200</v>
+        <v>-133300</v>
       </c>
       <c r="E94" s="3">
-        <v>-15500</v>
+        <v>-16000</v>
       </c>
       <c r="F94" s="3">
-        <v>-169800</v>
+        <v>-175200</v>
       </c>
       <c r="G94" s="3">
-        <v>-25300</v>
+        <v>-26100</v>
       </c>
       <c r="H94" s="3">
-        <v>-103700</v>
+        <v>-107000</v>
       </c>
       <c r="I94" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="J94" s="3">
-        <v>-26000</v>
+        <v>-26800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3765,16 +3765,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44600</v>
+        <v>-46000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31600</v>
+        <v>-32600</v>
       </c>
       <c r="G96" s="3">
-        <v>-27900</v>
+        <v>-28800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="E100" s="3">
-        <v>16100</v>
+        <v>16600</v>
       </c>
       <c r="F100" s="3">
-        <v>-29500</v>
+        <v>-30500</v>
       </c>
       <c r="G100" s="3">
-        <v>92300</v>
+        <v>95200</v>
       </c>
       <c r="H100" s="3">
-        <v>-89800</v>
+        <v>-92700</v>
       </c>
       <c r="I100" s="3">
-        <v>-18500</v>
+        <v>-19100</v>
       </c>
       <c r="J100" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3969,7 +3969,7 @@
         <v>-1000</v>
       </c>
       <c r="G101" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-43600</v>
+        <v>-45000</v>
       </c>
       <c r="E102" s="3">
-        <v>40600</v>
+        <v>41900</v>
       </c>
       <c r="F102" s="3">
-        <v>-128800</v>
+        <v>-132900</v>
       </c>
       <c r="G102" s="3">
-        <v>153400</v>
+        <v>158300</v>
       </c>
       <c r="H102" s="3">
-        <v>-128300</v>
+        <v>-132400</v>
       </c>
       <c r="I102" s="3">
-        <v>54400</v>
+        <v>56100</v>
       </c>
       <c r="J102" s="3">
-        <v>17400</v>
+        <v>17900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,36 +717,39 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>173200</v>
+        <v>134400</v>
       </c>
       <c r="E8" s="3">
-        <v>133600</v>
+        <v>171500</v>
       </c>
       <c r="F8" s="3">
-        <v>156800</v>
+        <v>132200</v>
       </c>
       <c r="G8" s="3">
-        <v>130100</v>
+        <v>155200</v>
       </c>
       <c r="H8" s="3">
-        <v>106700</v>
+        <v>128700</v>
       </c>
       <c r="I8" s="3">
-        <v>93000</v>
+        <v>105600</v>
       </c>
       <c r="J8" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K8" s="3">
         <v>91200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,9 +759,12 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,18 +780,18 @@
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
-        <v>7300</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>9600</v>
+        <v>7200</v>
       </c>
       <c r="J9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,18 +822,18 @@
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>99500</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>83500</v>
+        <v>98500</v>
       </c>
       <c r="J10" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K10" s="3">
         <v>79900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,23 +945,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -954,11 +973,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,36 +987,39 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>12900</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>8600</v>
+        <v>12700</v>
       </c>
       <c r="F15" s="3">
-        <v>5400</v>
+        <v>8500</v>
       </c>
       <c r="G15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H15" s="3">
         <v>3400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,35 +1047,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>151100</v>
+        <v>196600</v>
       </c>
       <c r="E17" s="3">
-        <v>87700</v>
+        <v>149600</v>
       </c>
       <c r="F17" s="3">
-        <v>84300</v>
+        <v>86800</v>
       </c>
       <c r="G17" s="3">
-        <v>57500</v>
+        <v>83500</v>
       </c>
       <c r="H17" s="3">
-        <v>53400</v>
+        <v>56900</v>
       </c>
       <c r="I17" s="3">
-        <v>48200</v>
+        <v>52800</v>
       </c>
       <c r="J17" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K17" s="3">
         <v>49800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,36 +1086,39 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>22100</v>
+        <v>-62200</v>
       </c>
       <c r="E18" s="3">
-        <v>45900</v>
+        <v>21900</v>
       </c>
       <c r="F18" s="3">
-        <v>72500</v>
+        <v>45400</v>
       </c>
       <c r="G18" s="3">
-        <v>72600</v>
+        <v>71700</v>
       </c>
       <c r="H18" s="3">
-        <v>53400</v>
+        <v>71800</v>
       </c>
       <c r="I18" s="3">
-        <v>44800</v>
+        <v>52800</v>
       </c>
       <c r="J18" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K18" s="3">
         <v>41300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,35 +1149,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11600</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F20" s="3">
         <v>5500</v>
       </c>
-      <c r="F20" s="3">
-        <v>17800</v>
-      </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>17600</v>
       </c>
       <c r="H20" s="3">
-        <v>12400</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
-        <v>6900</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,36 +1188,39 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>47800</v>
+        <v>-45200</v>
       </c>
       <c r="E21" s="3">
-        <v>60900</v>
+        <v>47400</v>
       </c>
       <c r="F21" s="3">
-        <v>96100</v>
+        <v>60300</v>
       </c>
       <c r="G21" s="3">
-        <v>80200</v>
+        <v>95100</v>
       </c>
       <c r="H21" s="3">
-        <v>69400</v>
+        <v>79400</v>
       </c>
       <c r="I21" s="3">
-        <v>56800</v>
+        <v>68700</v>
       </c>
       <c r="J21" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K21" s="3">
         <v>53800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,35 +1230,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1233,36 +1272,39 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31900</v>
+        <v>-64500</v>
       </c>
       <c r="E23" s="3">
-        <v>50900</v>
+        <v>31600</v>
       </c>
       <c r="F23" s="3">
-        <v>89900</v>
+        <v>50400</v>
       </c>
       <c r="G23" s="3">
-        <v>76400</v>
+        <v>89000</v>
       </c>
       <c r="H23" s="3">
-        <v>65600</v>
+        <v>75700</v>
       </c>
       <c r="I23" s="3">
-        <v>51700</v>
+        <v>64900</v>
       </c>
       <c r="J23" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K23" s="3">
         <v>47800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,36 +1314,39 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>-6500</v>
       </c>
       <c r="E24" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="F24" s="3">
-        <v>27200</v>
+        <v>15700</v>
       </c>
       <c r="G24" s="3">
-        <v>21900</v>
+        <v>26900</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>21700</v>
       </c>
       <c r="I24" s="3">
-        <v>12100</v>
+        <v>26000</v>
       </c>
       <c r="J24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,36 +1398,39 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16300</v>
+        <v>-57900</v>
       </c>
       <c r="E26" s="3">
-        <v>35000</v>
+        <v>16100</v>
       </c>
       <c r="F26" s="3">
-        <v>62700</v>
+        <v>34700</v>
       </c>
       <c r="G26" s="3">
-        <v>54500</v>
+        <v>62100</v>
       </c>
       <c r="H26" s="3">
-        <v>39400</v>
+        <v>53900</v>
       </c>
       <c r="I26" s="3">
-        <v>39700</v>
+        <v>39000</v>
       </c>
       <c r="J26" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K26" s="3">
         <v>36300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,36 +1440,39 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16900</v>
+        <v>-53500</v>
       </c>
       <c r="E27" s="3">
-        <v>37500</v>
+        <v>16700</v>
       </c>
       <c r="F27" s="3">
-        <v>63600</v>
+        <v>37200</v>
       </c>
       <c r="G27" s="3">
-        <v>53400</v>
+        <v>62900</v>
       </c>
       <c r="H27" s="3">
-        <v>39300</v>
+        <v>52800</v>
       </c>
       <c r="I27" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="J27" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K27" s="3">
         <v>33900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,36 +1650,39 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11600</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-17800</v>
-      </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>-17600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12400</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
-        <v>-6900</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,36 +1692,39 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16900</v>
+        <v>-53500</v>
       </c>
       <c r="E33" s="3">
-        <v>37500</v>
+        <v>16700</v>
       </c>
       <c r="F33" s="3">
-        <v>63600</v>
+        <v>37200</v>
       </c>
       <c r="G33" s="3">
-        <v>53400</v>
+        <v>62900</v>
       </c>
       <c r="H33" s="3">
-        <v>39300</v>
+        <v>52800</v>
       </c>
       <c r="I33" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="J33" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K33" s="3">
         <v>33900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,36 +1776,39 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16900</v>
+        <v>-53500</v>
       </c>
       <c r="E35" s="3">
-        <v>37500</v>
+        <v>16700</v>
       </c>
       <c r="F35" s="3">
-        <v>63600</v>
+        <v>37200</v>
       </c>
       <c r="G35" s="3">
-        <v>53400</v>
+        <v>62900</v>
       </c>
       <c r="H35" s="3">
-        <v>39300</v>
+        <v>52800</v>
       </c>
       <c r="I35" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="J35" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K35" s="3">
         <v>33900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,41 +1818,44 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,35 +1904,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42900</v>
+        <v>96100</v>
       </c>
       <c r="E41" s="3">
-        <v>87800</v>
+        <v>42400</v>
       </c>
       <c r="F41" s="3">
-        <v>45900</v>
+        <v>86900</v>
       </c>
       <c r="G41" s="3">
-        <v>181500</v>
+        <v>45500</v>
       </c>
       <c r="H41" s="3">
-        <v>23300</v>
+        <v>179700</v>
       </c>
       <c r="I41" s="3">
-        <v>128800</v>
+        <v>23000</v>
       </c>
       <c r="J41" s="3">
+        <v>127500</v>
+      </c>
+      <c r="K41" s="3">
         <v>72700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,36 +1943,39 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>102800</v>
+        <v>28100</v>
       </c>
       <c r="E42" s="3">
-        <v>78200</v>
+        <v>101700</v>
       </c>
       <c r="F42" s="3">
-        <v>92500</v>
+        <v>77400</v>
       </c>
       <c r="G42" s="3">
-        <v>142600</v>
+        <v>91600</v>
       </c>
       <c r="H42" s="3">
-        <v>156500</v>
+        <v>141200</v>
       </c>
       <c r="I42" s="3">
-        <v>39300</v>
+        <v>154900</v>
       </c>
       <c r="J42" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K42" s="3">
         <v>57200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,36 +1985,39 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100900</v>
+        <v>103100</v>
       </c>
       <c r="E43" s="3">
-        <v>47900</v>
+        <v>99900</v>
       </c>
       <c r="F43" s="3">
-        <v>30700</v>
+        <v>47400</v>
       </c>
       <c r="G43" s="3">
-        <v>28300</v>
+        <v>30400</v>
       </c>
       <c r="H43" s="3">
-        <v>9200</v>
+        <v>28000</v>
       </c>
       <c r="I43" s="3">
-        <v>26700</v>
+        <v>9100</v>
       </c>
       <c r="J43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K43" s="3">
         <v>17100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,16 +2040,16 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -1962,8 +2057,8 @@
       <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>300</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -1974,36 +2069,39 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>15900</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="G45" s="3">
-        <v>8400</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3">
-        <v>24100</v>
+        <v>8300</v>
       </c>
       <c r="I45" s="3">
-        <v>35000</v>
+        <v>23800</v>
       </c>
       <c r="J45" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,36 +2111,39 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>263000</v>
+        <v>242800</v>
       </c>
       <c r="E46" s="3">
-        <v>227500</v>
+        <v>260300</v>
       </c>
       <c r="F46" s="3">
-        <v>181700</v>
+        <v>225200</v>
       </c>
       <c r="G46" s="3">
-        <v>351900</v>
+        <v>179900</v>
       </c>
       <c r="H46" s="3">
-        <v>213300</v>
+        <v>348300</v>
       </c>
       <c r="I46" s="3">
-        <v>230000</v>
+        <v>211200</v>
       </c>
       <c r="J46" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K46" s="3">
         <v>162500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,36 +2153,39 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92700</v>
+        <v>84600</v>
       </c>
       <c r="E47" s="3">
-        <v>149200</v>
+        <v>91800</v>
       </c>
       <c r="F47" s="3">
-        <v>155100</v>
+        <v>147700</v>
       </c>
       <c r="G47" s="3">
-        <v>61400</v>
+        <v>153600</v>
       </c>
       <c r="H47" s="3">
-        <v>18000</v>
+        <v>60800</v>
       </c>
       <c r="I47" s="3">
-        <v>5100</v>
+        <v>17800</v>
       </c>
       <c r="J47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K47" s="3">
         <v>11700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,36 +2195,39 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>150100</v>
+        <v>338200</v>
       </c>
       <c r="E48" s="3">
-        <v>96000</v>
+        <v>148600</v>
       </c>
       <c r="F48" s="3">
-        <v>88300</v>
+        <v>95000</v>
       </c>
       <c r="G48" s="3">
-        <v>63900</v>
+        <v>87400</v>
       </c>
       <c r="H48" s="3">
-        <v>13900</v>
+        <v>63200</v>
       </c>
       <c r="I48" s="3">
-        <v>15900</v>
+        <v>13700</v>
       </c>
       <c r="J48" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K48" s="3">
         <v>20300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,36 +2237,39 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>92100</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="3">
-        <v>85000</v>
+        <v>91100</v>
       </c>
       <c r="F49" s="3">
-        <v>85600</v>
+        <v>84100</v>
       </c>
       <c r="G49" s="3">
+        <v>84800</v>
+      </c>
+      <c r="H49" s="3">
         <v>8600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,36 +2363,39 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72400</v>
+        <v>50000</v>
       </c>
       <c r="E52" s="3">
-        <v>30300</v>
+        <v>71700</v>
       </c>
       <c r="F52" s="3">
-        <v>37300</v>
+        <v>30000</v>
       </c>
       <c r="G52" s="3">
-        <v>23300</v>
+        <v>36900</v>
       </c>
       <c r="H52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
-        <v>17300</v>
-      </c>
       <c r="J52" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,36 +2447,39 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>670300</v>
+        <v>725300</v>
       </c>
       <c r="E54" s="3">
-        <v>588100</v>
+        <v>663400</v>
       </c>
       <c r="F54" s="3">
-        <v>548100</v>
+        <v>582100</v>
       </c>
       <c r="G54" s="3">
-        <v>442300</v>
+        <v>542500</v>
       </c>
       <c r="H54" s="3">
-        <v>252200</v>
+        <v>437800</v>
       </c>
       <c r="I54" s="3">
-        <v>269400</v>
+        <v>249600</v>
       </c>
       <c r="J54" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K54" s="3">
         <v>202100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,34 +2528,35 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="E57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>1100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2437,26 +2567,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58300</v>
+        <v>34300</v>
       </c>
       <c r="E58" s="3">
-        <v>21500</v>
+        <v>57700</v>
       </c>
       <c r="F58" s="3">
-        <v>8600</v>
+        <v>21300</v>
       </c>
       <c r="G58" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>8500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>17100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2473,39 +2606,42 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>117700</v>
+        <v>138700</v>
       </c>
       <c r="E59" s="3">
-        <v>100500</v>
+        <v>116500</v>
       </c>
       <c r="F59" s="3">
-        <v>103400</v>
+        <v>99500</v>
       </c>
       <c r="G59" s="3">
-        <v>185900</v>
+        <v>102300</v>
       </c>
       <c r="H59" s="3">
-        <v>94200</v>
+        <v>184000</v>
       </c>
       <c r="I59" s="3">
-        <v>69500</v>
+        <v>93200</v>
       </c>
       <c r="J59" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K59" s="3">
         <v>51500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,36 +2651,39 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>179500</v>
+        <v>176000</v>
       </c>
       <c r="E60" s="3">
-        <v>124900</v>
+        <v>177700</v>
       </c>
       <c r="F60" s="3">
-        <v>114200</v>
+        <v>123600</v>
       </c>
       <c r="G60" s="3">
-        <v>102000</v>
+        <v>113000</v>
       </c>
       <c r="H60" s="3">
-        <v>95200</v>
+        <v>100900</v>
       </c>
       <c r="I60" s="3">
-        <v>70600</v>
+        <v>94300</v>
       </c>
       <c r="J60" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K60" s="3">
         <v>52500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,17 +2693,20 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43300</v>
+        <v>22700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>42900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2593,36 +2735,39 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>152400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>138700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>142700</v>
+      </c>
+      <c r="H62" s="3">
         <v>154000</v>
       </c>
-      <c r="E62" s="3">
-        <v>140100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>144100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>155600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>51800</v>
-      </c>
       <c r="I62" s="3">
-        <v>51300</v>
+        <v>51200</v>
       </c>
       <c r="J62" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K62" s="3">
         <v>37900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,36 +2903,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>403500</v>
+        <v>519200</v>
       </c>
       <c r="E66" s="3">
-        <v>286100</v>
+        <v>399400</v>
       </c>
       <c r="F66" s="3">
-        <v>280800</v>
+        <v>283200</v>
       </c>
       <c r="G66" s="3">
-        <v>205200</v>
+        <v>277900</v>
       </c>
       <c r="H66" s="3">
-        <v>147000</v>
+        <v>203100</v>
       </c>
       <c r="I66" s="3">
-        <v>122000</v>
+        <v>145500</v>
       </c>
       <c r="J66" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K66" s="3">
         <v>90600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,36 +3131,39 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46900</v>
+        <v>-7100</v>
       </c>
       <c r="E72" s="3">
-        <v>81900</v>
+        <v>46400</v>
       </c>
       <c r="F72" s="3">
+        <v>81000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>43900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>35900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>31700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K72" s="3">
         <v>44300</v>
       </c>
-      <c r="G72" s="3">
-        <v>36300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>79900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,36 +3299,39 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>266800</v>
+        <v>206100</v>
       </c>
       <c r="E76" s="3">
-        <v>302000</v>
+        <v>264100</v>
       </c>
       <c r="F76" s="3">
-        <v>267300</v>
+        <v>298900</v>
       </c>
       <c r="G76" s="3">
-        <v>237100</v>
+        <v>264600</v>
       </c>
       <c r="H76" s="3">
-        <v>105200</v>
+        <v>234700</v>
       </c>
       <c r="I76" s="3">
-        <v>147400</v>
+        <v>104100</v>
       </c>
       <c r="J76" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K76" s="3">
         <v>111500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,41 +3383,44 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,36 +3430,39 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16900</v>
+        <v>-53500</v>
       </c>
       <c r="E81" s="3">
-        <v>37500</v>
+        <v>16700</v>
       </c>
       <c r="F81" s="3">
-        <v>63600</v>
+        <v>37200</v>
       </c>
       <c r="G81" s="3">
-        <v>53400</v>
+        <v>62900</v>
       </c>
       <c r="H81" s="3">
-        <v>39300</v>
+        <v>52800</v>
       </c>
       <c r="I81" s="3">
-        <v>38200</v>
+        <v>38900</v>
       </c>
       <c r="J81" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K81" s="3">
         <v>33900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,35 +3493,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14100</v>
+        <v>15600</v>
       </c>
       <c r="E83" s="3">
-        <v>9500</v>
+        <v>13900</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>9400</v>
       </c>
       <c r="G83" s="3">
-        <v>3700</v>
+        <v>5700</v>
       </c>
       <c r="H83" s="3">
         <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K83" s="3">
         <v>6000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,36 +3742,39 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>51800</v>
+        <v>40000</v>
       </c>
       <c r="E89" s="3">
-        <v>42400</v>
+        <v>51300</v>
       </c>
       <c r="F89" s="3">
-        <v>73800</v>
+        <v>42000</v>
       </c>
       <c r="G89" s="3">
-        <v>79700</v>
+        <v>73100</v>
       </c>
       <c r="H89" s="3">
-        <v>67400</v>
+        <v>78900</v>
       </c>
       <c r="I89" s="3">
-        <v>63700</v>
+        <v>66700</v>
       </c>
       <c r="J89" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K89" s="3">
         <v>51300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,35 +3805,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80600</v>
+        <v>-9800</v>
       </c>
       <c r="E91" s="3">
-        <v>-16100</v>
+        <v>-79800</v>
       </c>
       <c r="F91" s="3">
-        <v>-30600</v>
+        <v>-15900</v>
       </c>
       <c r="G91" s="3">
-        <v>-19900</v>
+        <v>-30300</v>
       </c>
       <c r="H91" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,36 +3928,39 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-133300</v>
+        <v>62400</v>
       </c>
       <c r="E94" s="3">
-        <v>-16000</v>
+        <v>-132000</v>
       </c>
       <c r="F94" s="3">
-        <v>-175200</v>
+        <v>-15900</v>
       </c>
       <c r="G94" s="3">
-        <v>-26100</v>
+        <v>-173400</v>
       </c>
       <c r="H94" s="3">
-        <v>-107000</v>
+        <v>-25800</v>
       </c>
       <c r="I94" s="3">
-        <v>10600</v>
+        <v>-105900</v>
       </c>
       <c r="J94" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,25 +3991,26 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46000</v>
+        <v>-5800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-45500</v>
       </c>
       <c r="F96" s="3">
-        <v>-32600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-28800</v>
+        <v>-32300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-28500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,36 +4156,39 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36700</v>
+        <v>-48600</v>
       </c>
       <c r="E100" s="3">
-        <v>16600</v>
+        <v>36300</v>
       </c>
       <c r="F100" s="3">
-        <v>-30500</v>
+        <v>16400</v>
       </c>
       <c r="G100" s="3">
-        <v>95200</v>
+        <v>-30200</v>
       </c>
       <c r="H100" s="3">
-        <v>-92700</v>
+        <v>94300</v>
       </c>
       <c r="I100" s="3">
-        <v>-19100</v>
+        <v>-91700</v>
       </c>
       <c r="J100" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,36 +4198,39 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>9500</v>
-      </c>
       <c r="H101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,36 +4240,39 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-45000</v>
+        <v>54000</v>
       </c>
       <c r="E102" s="3">
-        <v>41900</v>
+        <v>-44500</v>
       </c>
       <c r="F102" s="3">
-        <v>-132900</v>
+        <v>41400</v>
       </c>
       <c r="G102" s="3">
-        <v>158300</v>
+        <v>-131500</v>
       </c>
       <c r="H102" s="3">
-        <v>-132400</v>
+        <v>156700</v>
       </c>
       <c r="I102" s="3">
-        <v>56100</v>
+        <v>-131100</v>
       </c>
       <c r="J102" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K102" s="3">
         <v>17900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>GHG</t>
   </si>
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>134400</v>
+        <v>129100</v>
       </c>
       <c r="E8" s="3">
-        <v>171500</v>
+        <v>166200</v>
       </c>
       <c r="F8" s="3">
-        <v>132200</v>
+        <v>128100</v>
       </c>
       <c r="G8" s="3">
-        <v>155200</v>
+        <v>150400</v>
       </c>
       <c r="H8" s="3">
-        <v>128700</v>
+        <v>124800</v>
       </c>
       <c r="I8" s="3">
-        <v>105600</v>
+        <v>102400</v>
       </c>
       <c r="J8" s="3">
-        <v>92100</v>
+        <v>89300</v>
       </c>
       <c r="K8" s="3">
         <v>91200</v>
@@ -784,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J9" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="K9" s="3">
         <v>11300</v>
@@ -826,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>98500</v>
+        <v>95400</v>
       </c>
       <c r="J10" s="3">
-        <v>82600</v>
+        <v>80100</v>
       </c>
       <c r="K10" s="3">
         <v>79900</v>
@@ -955,19 +955,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>23900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -996,20 +996,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>12800</v>
       </c>
       <c r="E15" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="F15" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="H15" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196600</v>
+        <v>195900</v>
       </c>
       <c r="E17" s="3">
-        <v>149600</v>
+        <v>145000</v>
       </c>
       <c r="F17" s="3">
-        <v>86800</v>
+        <v>84200</v>
       </c>
       <c r="G17" s="3">
-        <v>83500</v>
+        <v>80900</v>
       </c>
       <c r="H17" s="3">
-        <v>56900</v>
+        <v>55200</v>
       </c>
       <c r="I17" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="J17" s="3">
-        <v>47700</v>
+        <v>46200</v>
       </c>
       <c r="K17" s="3">
         <v>49800</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-62200</v>
+        <v>-66800</v>
       </c>
       <c r="E18" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="F18" s="3">
-        <v>45400</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="3">
-        <v>71700</v>
+        <v>69500</v>
       </c>
       <c r="H18" s="3">
-        <v>71800</v>
+        <v>69600</v>
       </c>
       <c r="I18" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="J18" s="3">
-        <v>44400</v>
+        <v>43000</v>
       </c>
       <c r="K18" s="3">
         <v>41300</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1300</v>
+        <v>7100</v>
       </c>
       <c r="E20" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="J20" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K20" s="3">
         <v>6500</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-45200</v>
+        <v>-44600</v>
       </c>
       <c r="E21" s="3">
-        <v>47400</v>
+        <v>45900</v>
       </c>
       <c r="F21" s="3">
-        <v>60300</v>
+        <v>58400</v>
       </c>
       <c r="G21" s="3">
-        <v>95100</v>
+        <v>92200</v>
       </c>
       <c r="H21" s="3">
-        <v>79400</v>
+        <v>76900</v>
       </c>
       <c r="I21" s="3">
-        <v>68700</v>
+        <v>66600</v>
       </c>
       <c r="J21" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="K21" s="3">
         <v>53800</v>
@@ -1240,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64500</v>
+        <v>-63200</v>
       </c>
       <c r="E23" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="F23" s="3">
-        <v>50400</v>
+        <v>48800</v>
       </c>
       <c r="G23" s="3">
-        <v>89000</v>
+        <v>86300</v>
       </c>
       <c r="H23" s="3">
-        <v>75700</v>
+        <v>73300</v>
       </c>
       <c r="I23" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="J23" s="3">
-        <v>51200</v>
+        <v>49600</v>
       </c>
       <c r="K23" s="3">
         <v>47800</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="E24" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="F24" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="G24" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="H24" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="I24" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="J24" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="K24" s="3">
         <v>11500</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57900</v>
+        <v>-57000</v>
       </c>
       <c r="E26" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="F26" s="3">
-        <v>34700</v>
+        <v>33600</v>
       </c>
       <c r="G26" s="3">
-        <v>62100</v>
+        <v>60100</v>
       </c>
       <c r="H26" s="3">
-        <v>53900</v>
+        <v>52300</v>
       </c>
       <c r="I26" s="3">
-        <v>39000</v>
+        <v>37800</v>
       </c>
       <c r="J26" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="K26" s="3">
         <v>36300</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53500</v>
+        <v>-52700</v>
       </c>
       <c r="E27" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F27" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="H27" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="I27" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="J27" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="K27" s="3">
         <v>33900</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1300</v>
+        <v>-7100</v>
       </c>
       <c r="E32" s="3">
-        <v>-11500</v>
+        <v>-11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
-        <v>-17600</v>
+        <v>-17100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="J32" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="K32" s="3">
         <v>-6500</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53500</v>
+        <v>-52700</v>
       </c>
       <c r="E33" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F33" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="H33" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="I33" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="J33" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="K33" s="3">
         <v>33900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53500</v>
+        <v>-52700</v>
       </c>
       <c r="E35" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F35" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="H35" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="I35" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="J35" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="K35" s="3">
         <v>33900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96100</v>
+        <v>87800</v>
       </c>
       <c r="E41" s="3">
-        <v>42400</v>
+        <v>41100</v>
       </c>
       <c r="F41" s="3">
-        <v>86900</v>
+        <v>84200</v>
       </c>
       <c r="G41" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="H41" s="3">
-        <v>179700</v>
+        <v>174200</v>
       </c>
       <c r="I41" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="J41" s="3">
-        <v>127500</v>
+        <v>123600</v>
       </c>
       <c r="K41" s="3">
         <v>72700</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28100</v>
+        <v>31300</v>
       </c>
       <c r="E42" s="3">
-        <v>101700</v>
+        <v>98600</v>
       </c>
       <c r="F42" s="3">
-        <v>77400</v>
+        <v>75000</v>
       </c>
       <c r="G42" s="3">
-        <v>91600</v>
+        <v>88800</v>
       </c>
       <c r="H42" s="3">
-        <v>141200</v>
+        <v>136800</v>
       </c>
       <c r="I42" s="3">
-        <v>154900</v>
+        <v>150100</v>
       </c>
       <c r="J42" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="K42" s="3">
         <v>57200</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>103100</v>
+        <v>101900</v>
       </c>
       <c r="E43" s="3">
-        <v>99900</v>
+        <v>96800</v>
       </c>
       <c r="F43" s="3">
-        <v>47400</v>
+        <v>46000</v>
       </c>
       <c r="G43" s="3">
-        <v>30400</v>
+        <v>29500</v>
       </c>
       <c r="H43" s="3">
-        <v>28000</v>
+        <v>27200</v>
       </c>
       <c r="I43" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="J43" s="3">
-        <v>26400</v>
+        <v>25600</v>
       </c>
       <c r="K43" s="3">
         <v>17100</v>
@@ -2046,7 +2046,7 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="F45" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="I45" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="J45" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>242800</v>
+        <v>234500</v>
       </c>
       <c r="E46" s="3">
-        <v>260300</v>
+        <v>252300</v>
       </c>
       <c r="F46" s="3">
-        <v>225200</v>
+        <v>218300</v>
       </c>
       <c r="G46" s="3">
-        <v>179900</v>
+        <v>174300</v>
       </c>
       <c r="H46" s="3">
-        <v>348300</v>
+        <v>337600</v>
       </c>
       <c r="I46" s="3">
-        <v>211200</v>
+        <v>204700</v>
       </c>
       <c r="J46" s="3">
-        <v>227600</v>
+        <v>220600</v>
       </c>
       <c r="K46" s="3">
         <v>162500</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84600</v>
+        <v>83100</v>
       </c>
       <c r="E47" s="3">
-        <v>91800</v>
+        <v>88900</v>
       </c>
       <c r="F47" s="3">
-        <v>147700</v>
+        <v>143200</v>
       </c>
       <c r="G47" s="3">
-        <v>153600</v>
+        <v>148800</v>
       </c>
       <c r="H47" s="3">
-        <v>60800</v>
+        <v>58900</v>
       </c>
       <c r="I47" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="J47" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K47" s="3">
         <v>11700</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>338200</v>
+        <v>327800</v>
       </c>
       <c r="E48" s="3">
-        <v>148600</v>
+        <v>144000</v>
       </c>
       <c r="F48" s="3">
-        <v>95000</v>
+        <v>92100</v>
       </c>
       <c r="G48" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="H48" s="3">
-        <v>63200</v>
+        <v>61300</v>
       </c>
       <c r="I48" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="J48" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="K48" s="3">
         <v>20300</v>
@@ -2247,22 +2247,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="E49" s="3">
-        <v>91100</v>
+        <v>88300</v>
       </c>
       <c r="F49" s="3">
-        <v>84100</v>
+        <v>81500</v>
       </c>
       <c r="G49" s="3">
-        <v>84800</v>
+        <v>82200</v>
       </c>
       <c r="H49" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="I49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J49" s="3">
         <v>1100</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50000</v>
+        <v>47400</v>
       </c>
       <c r="E52" s="3">
-        <v>71700</v>
+        <v>69400</v>
       </c>
       <c r="F52" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="G52" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="H52" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="I52" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J52" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="K52" s="3">
         <v>6300</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>725300</v>
+        <v>702100</v>
       </c>
       <c r="E54" s="3">
-        <v>663400</v>
+        <v>643000</v>
       </c>
       <c r="F54" s="3">
-        <v>582100</v>
+        <v>564200</v>
       </c>
       <c r="G54" s="3">
-        <v>542500</v>
+        <v>525800</v>
       </c>
       <c r="H54" s="3">
-        <v>437800</v>
+        <v>424300</v>
       </c>
       <c r="I54" s="3">
-        <v>249600</v>
+        <v>241900</v>
       </c>
       <c r="J54" s="3">
-        <v>266600</v>
+        <v>258400</v>
       </c>
       <c r="K54" s="3">
         <v>202100</v>
@@ -2538,13 +2538,13 @@
         <v>2900</v>
       </c>
       <c r="E57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G57" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H57" s="3">
         <v>1300</v>
@@ -2577,19 +2577,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="E58" s="3">
-        <v>57700</v>
+        <v>56000</v>
       </c>
       <c r="F58" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="G58" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H58" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138700</v>
+        <v>134000</v>
       </c>
       <c r="E59" s="3">
-        <v>116500</v>
+        <v>112900</v>
       </c>
       <c r="F59" s="3">
-        <v>99500</v>
+        <v>96400</v>
       </c>
       <c r="G59" s="3">
-        <v>102300</v>
+        <v>99200</v>
       </c>
       <c r="H59" s="3">
-        <v>184000</v>
+        <v>178300</v>
       </c>
       <c r="I59" s="3">
-        <v>93200</v>
+        <v>90300</v>
       </c>
       <c r="J59" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="K59" s="3">
         <v>51500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>176000</v>
+        <v>170100</v>
       </c>
       <c r="E60" s="3">
-        <v>177700</v>
+        <v>172200</v>
       </c>
       <c r="F60" s="3">
-        <v>123600</v>
+        <v>119800</v>
       </c>
       <c r="G60" s="3">
-        <v>113000</v>
+        <v>109500</v>
       </c>
       <c r="H60" s="3">
-        <v>100900</v>
+        <v>97800</v>
       </c>
       <c r="I60" s="3">
-        <v>94300</v>
+        <v>91400</v>
       </c>
       <c r="J60" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="K60" s="3">
         <v>52500</v>
@@ -2703,10 +2703,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="E61" s="3">
-        <v>42900</v>
+        <v>41600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>314100</v>
+        <v>304800</v>
       </c>
       <c r="E62" s="3">
-        <v>152400</v>
+        <v>147800</v>
       </c>
       <c r="F62" s="3">
-        <v>138700</v>
+        <v>134400</v>
       </c>
       <c r="G62" s="3">
-        <v>142700</v>
+        <v>138300</v>
       </c>
       <c r="H62" s="3">
-        <v>154000</v>
+        <v>149300</v>
       </c>
       <c r="I62" s="3">
-        <v>51200</v>
+        <v>49600</v>
       </c>
       <c r="J62" s="3">
-        <v>50800</v>
+        <v>49200</v>
       </c>
       <c r="K62" s="3">
         <v>37900</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>519200</v>
+        <v>503100</v>
       </c>
       <c r="E66" s="3">
-        <v>399400</v>
+        <v>387100</v>
       </c>
       <c r="F66" s="3">
-        <v>283200</v>
+        <v>274400</v>
       </c>
       <c r="G66" s="3">
-        <v>277900</v>
+        <v>269400</v>
       </c>
       <c r="H66" s="3">
-        <v>203100</v>
+        <v>196900</v>
       </c>
       <c r="I66" s="3">
-        <v>145500</v>
+        <v>141100</v>
       </c>
       <c r="J66" s="3">
-        <v>120800</v>
+        <v>117000</v>
       </c>
       <c r="K66" s="3">
         <v>90600</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7100</v>
+        <v>-7700</v>
       </c>
       <c r="E72" s="3">
-        <v>46400</v>
+        <v>45000</v>
       </c>
       <c r="F72" s="3">
-        <v>81000</v>
+        <v>78500</v>
       </c>
       <c r="G72" s="3">
-        <v>43900</v>
+        <v>42500</v>
       </c>
       <c r="H72" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="I72" s="3">
-        <v>31700</v>
+        <v>30700</v>
       </c>
       <c r="J72" s="3">
-        <v>79100</v>
+        <v>76700</v>
       </c>
       <c r="K72" s="3">
         <v>44300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>206100</v>
+        <v>199000</v>
       </c>
       <c r="E76" s="3">
-        <v>264100</v>
+        <v>256000</v>
       </c>
       <c r="F76" s="3">
-        <v>298900</v>
+        <v>289800</v>
       </c>
       <c r="G76" s="3">
-        <v>264600</v>
+        <v>256400</v>
       </c>
       <c r="H76" s="3">
-        <v>234700</v>
+        <v>227500</v>
       </c>
       <c r="I76" s="3">
-        <v>104100</v>
+        <v>100900</v>
       </c>
       <c r="J76" s="3">
-        <v>145900</v>
+        <v>141400</v>
       </c>
       <c r="K76" s="3">
         <v>111500</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53500</v>
+        <v>-52700</v>
       </c>
       <c r="E81" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F81" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="H81" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="I81" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="J81" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="K81" s="3">
         <v>33900</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E83" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F83" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G83" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K83" s="3">
         <v>6000</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="E89" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="F89" s="3">
-        <v>42000</v>
+        <v>40700</v>
       </c>
       <c r="G89" s="3">
-        <v>73100</v>
+        <v>70800</v>
       </c>
       <c r="H89" s="3">
-        <v>78900</v>
+        <v>76500</v>
       </c>
       <c r="I89" s="3">
-        <v>66700</v>
+        <v>64700</v>
       </c>
       <c r="J89" s="3">
-        <v>63100</v>
+        <v>61100</v>
       </c>
       <c r="K89" s="3">
         <v>51300</v>
@@ -3812,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="E91" s="3">
-        <v>-79800</v>
+        <v>-77300</v>
       </c>
       <c r="F91" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
-        <v>-30300</v>
+        <v>-29400</v>
       </c>
       <c r="H91" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J91" s="3">
         <v>-800</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>62400</v>
+        <v>54900</v>
       </c>
       <c r="E94" s="3">
-        <v>-132000</v>
+        <v>-127900</v>
       </c>
       <c r="F94" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="G94" s="3">
-        <v>-173400</v>
+        <v>-168100</v>
       </c>
       <c r="H94" s="3">
-        <v>-25800</v>
+        <v>-25000</v>
       </c>
       <c r="I94" s="3">
-        <v>-105900</v>
+        <v>-102600</v>
       </c>
       <c r="J94" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="K94" s="3">
         <v>-26800</v>
@@ -3998,19 +3998,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>-45500</v>
+        <v>-44100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-32300</v>
+        <v>-31300</v>
       </c>
       <c r="H96" s="3">
-        <v>-28500</v>
+        <v>-27600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-48600</v>
+        <v>-47100</v>
       </c>
       <c r="E100" s="3">
-        <v>36300</v>
+        <v>35200</v>
       </c>
       <c r="F100" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="G100" s="3">
-        <v>-30200</v>
+        <v>-29200</v>
       </c>
       <c r="H100" s="3">
-        <v>94300</v>
+        <v>91400</v>
       </c>
       <c r="I100" s="3">
-        <v>-91700</v>
+        <v>-88900</v>
       </c>
       <c r="J100" s="3">
-        <v>-18900</v>
+        <v>-18300</v>
       </c>
       <c r="K100" s="3">
         <v>-7400</v>
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
@@ -4220,7 +4220,7 @@
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>54000</v>
+        <v>48200</v>
       </c>
       <c r="E102" s="3">
-        <v>-44500</v>
+        <v>-43100</v>
       </c>
       <c r="F102" s="3">
-        <v>41400</v>
+        <v>40200</v>
       </c>
       <c r="G102" s="3">
-        <v>-131500</v>
+        <v>-127500</v>
       </c>
       <c r="H102" s="3">
-        <v>156700</v>
+        <v>151900</v>
       </c>
       <c r="I102" s="3">
-        <v>-131100</v>
+        <v>-127000</v>
       </c>
       <c r="J102" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="K102" s="3">
         <v>17900</v>

--- a/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GHG_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>129100</v>
+        <v>129400</v>
       </c>
       <c r="E8" s="3">
-        <v>166200</v>
+        <v>166500</v>
       </c>
       <c r="F8" s="3">
-        <v>128100</v>
+        <v>128400</v>
       </c>
       <c r="G8" s="3">
-        <v>150400</v>
+        <v>150800</v>
       </c>
       <c r="H8" s="3">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="I8" s="3">
-        <v>102400</v>
+        <v>102600</v>
       </c>
       <c r="J8" s="3">
-        <v>89300</v>
+        <v>89400</v>
       </c>
       <c r="K8" s="3">
         <v>91200</v>
@@ -826,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>95400</v>
+        <v>95600</v>
       </c>
       <c r="J10" s="3">
-        <v>80100</v>
+        <v>80300</v>
       </c>
       <c r="K10" s="3">
         <v>79900</v>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1000,13 +1000,13 @@
         <v>12800</v>
       </c>
       <c r="E15" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="F15" s="3">
         <v>8200</v>
       </c>
       <c r="G15" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H15" s="3">
         <v>3300</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>195900</v>
+        <v>196300</v>
       </c>
       <c r="E17" s="3">
-        <v>145000</v>
+        <v>145300</v>
       </c>
       <c r="F17" s="3">
-        <v>84200</v>
+        <v>84300</v>
       </c>
       <c r="G17" s="3">
-        <v>80900</v>
+        <v>81100</v>
       </c>
       <c r="H17" s="3">
-        <v>55200</v>
+        <v>55300</v>
       </c>
       <c r="I17" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="J17" s="3">
-        <v>46200</v>
+        <v>46300</v>
       </c>
       <c r="K17" s="3">
         <v>49800</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-66800</v>
+        <v>-67000</v>
       </c>
       <c r="E18" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="F18" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="G18" s="3">
-        <v>69500</v>
+        <v>69700</v>
       </c>
       <c r="H18" s="3">
-        <v>69600</v>
+        <v>69800</v>
       </c>
       <c r="I18" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="J18" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="K18" s="3">
         <v>41300</v>
@@ -1171,7 +1171,7 @@
         <v>3800</v>
       </c>
       <c r="I20" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
         <v>6600</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-44600</v>
+        <v>-44700</v>
       </c>
       <c r="E21" s="3">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="F21" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="G21" s="3">
-        <v>92200</v>
+        <v>92400</v>
       </c>
       <c r="H21" s="3">
-        <v>76900</v>
+        <v>77100</v>
       </c>
       <c r="I21" s="3">
-        <v>66600</v>
+        <v>66700</v>
       </c>
       <c r="J21" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="K21" s="3">
         <v>53800</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63200</v>
+        <v>-63400</v>
       </c>
       <c r="E23" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="F23" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="G23" s="3">
-        <v>86300</v>
+        <v>86400</v>
       </c>
       <c r="H23" s="3">
-        <v>73300</v>
+        <v>73500</v>
       </c>
       <c r="I23" s="3">
-        <v>62900</v>
+        <v>63100</v>
       </c>
       <c r="J23" s="3">
-        <v>49600</v>
+        <v>49700</v>
       </c>
       <c r="K23" s="3">
         <v>47800</v>
@@ -1330,13 +1330,13 @@
         <v>15000</v>
       </c>
       <c r="F24" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G24" s="3">
-        <v>26100</v>
+        <v>26200</v>
       </c>
       <c r="H24" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="I24" s="3">
         <v>25200</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57000</v>
+        <v>-57100</v>
       </c>
       <c r="E26" s="3">
         <v>15600</v>
       </c>
       <c r="F26" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="G26" s="3">
-        <v>60100</v>
+        <v>60300</v>
       </c>
       <c r="H26" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="I26" s="3">
         <v>37800</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="E27" s="3">
         <v>16200</v>
       </c>
       <c r="F27" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="G27" s="3">
-        <v>61000</v>
+        <v>61100</v>
       </c>
       <c r="H27" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="I27" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="J27" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K27" s="3">
         <v>33900</v>
@@ -1675,7 +1675,7 @@
         <v>-3800</v>
       </c>
       <c r="I32" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
         <v>-6600</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="E33" s="3">
         <v>16200</v>
       </c>
       <c r="F33" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="G33" s="3">
-        <v>61000</v>
+        <v>61100</v>
       </c>
       <c r="H33" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="I33" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="J33" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K33" s="3">
         <v>33900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="E35" s="3">
         <v>16200</v>
       </c>
       <c r="F35" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="G35" s="3">
-        <v>61000</v>
+        <v>61100</v>
       </c>
       <c r="H35" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="I35" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="J35" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K35" s="3">
         <v>33900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87800</v>
+        <v>88000</v>
       </c>
       <c r="E41" s="3">
-        <v>41100</v>
+        <v>41200</v>
       </c>
       <c r="F41" s="3">
-        <v>84200</v>
+        <v>84400</v>
       </c>
       <c r="G41" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="H41" s="3">
-        <v>174200</v>
+        <v>174500</v>
       </c>
       <c r="I41" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="J41" s="3">
-        <v>123600</v>
+        <v>123800</v>
       </c>
       <c r="K41" s="3">
         <v>72700</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="E42" s="3">
-        <v>98600</v>
+        <v>98800</v>
       </c>
       <c r="F42" s="3">
-        <v>75000</v>
+        <v>75200</v>
       </c>
       <c r="G42" s="3">
-        <v>88800</v>
+        <v>89000</v>
       </c>
       <c r="H42" s="3">
-        <v>136800</v>
+        <v>137100</v>
       </c>
       <c r="I42" s="3">
-        <v>150100</v>
+        <v>150500</v>
       </c>
       <c r="J42" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="K42" s="3">
         <v>57200</v>
@@ -1995,13 +1995,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>101900</v>
+        <v>102100</v>
       </c>
       <c r="E43" s="3">
-        <v>96800</v>
+        <v>97100</v>
       </c>
       <c r="F43" s="3">
-        <v>46000</v>
+        <v>46100</v>
       </c>
       <c r="G43" s="3">
         <v>29500</v>
@@ -2013,7 +2013,7 @@
         <v>8800</v>
       </c>
       <c r="J43" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="K43" s="3">
         <v>17100</v>
@@ -2046,7 +2046,7 @@
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2094,10 +2094,10 @@
         <v>8100</v>
       </c>
       <c r="I45" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="J45" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>234500</v>
+        <v>235000</v>
       </c>
       <c r="E46" s="3">
-        <v>252300</v>
+        <v>252900</v>
       </c>
       <c r="F46" s="3">
-        <v>218300</v>
+        <v>218800</v>
       </c>
       <c r="G46" s="3">
-        <v>174300</v>
+        <v>174700</v>
       </c>
       <c r="H46" s="3">
-        <v>337600</v>
+        <v>338400</v>
       </c>
       <c r="I46" s="3">
-        <v>204700</v>
+        <v>205100</v>
       </c>
       <c r="J46" s="3">
-        <v>220600</v>
+        <v>221100</v>
       </c>
       <c r="K46" s="3">
         <v>162500</v>
@@ -2163,22 +2163,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83100</v>
+        <v>83300</v>
       </c>
       <c r="E47" s="3">
-        <v>88900</v>
+        <v>89100</v>
       </c>
       <c r="F47" s="3">
-        <v>143200</v>
+        <v>143500</v>
       </c>
       <c r="G47" s="3">
-        <v>148800</v>
+        <v>149200</v>
       </c>
       <c r="H47" s="3">
-        <v>58900</v>
+        <v>59100</v>
       </c>
       <c r="I47" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J47" s="3">
         <v>4900</v>
@@ -2205,19 +2205,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>327800</v>
+        <v>328600</v>
       </c>
       <c r="E48" s="3">
-        <v>144000</v>
+        <v>144300</v>
       </c>
       <c r="F48" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="G48" s="3">
-        <v>84700</v>
+        <v>84900</v>
       </c>
       <c r="H48" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="I48" s="3">
         <v>13300</v>
@@ -2250,13 +2250,13 @@
         <v>9300</v>
       </c>
       <c r="E49" s="3">
-        <v>88300</v>
+        <v>88500</v>
       </c>
       <c r="F49" s="3">
-        <v>81500</v>
+        <v>81700</v>
       </c>
       <c r="G49" s="3">
-        <v>82200</v>
+        <v>82300</v>
       </c>
       <c r="H49" s="3">
         <v>8300</v>
@@ -2373,16 +2373,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="E52" s="3">
-        <v>69400</v>
+        <v>69600</v>
       </c>
       <c r="F52" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="G52" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="H52" s="3">
         <v>22400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>702100</v>
+        <v>703700</v>
       </c>
       <c r="E54" s="3">
-        <v>643000</v>
+        <v>644400</v>
       </c>
       <c r="F54" s="3">
-        <v>564200</v>
+        <v>565400</v>
       </c>
       <c r="G54" s="3">
-        <v>525800</v>
+        <v>527000</v>
       </c>
       <c r="H54" s="3">
-        <v>424300</v>
+        <v>425300</v>
       </c>
       <c r="I54" s="3">
-        <v>241900</v>
+        <v>242500</v>
       </c>
       <c r="J54" s="3">
-        <v>258400</v>
+        <v>259000</v>
       </c>
       <c r="K54" s="3">
         <v>202100</v>
@@ -2577,10 +2577,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="E58" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="F58" s="3">
         <v>20700</v>
@@ -2589,7 +2589,7 @@
         <v>8300</v>
       </c>
       <c r="H58" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134000</v>
+        <v>134300</v>
       </c>
       <c r="E59" s="3">
-        <v>112900</v>
+        <v>113200</v>
       </c>
       <c r="F59" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="G59" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="H59" s="3">
-        <v>178300</v>
+        <v>178700</v>
       </c>
       <c r="I59" s="3">
-        <v>90300</v>
+        <v>90500</v>
       </c>
       <c r="J59" s="3">
-        <v>66700</v>
+        <v>66800</v>
       </c>
       <c r="K59" s="3">
         <v>51500</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170100</v>
+        <v>170500</v>
       </c>
       <c r="E60" s="3">
-        <v>172200</v>
+        <v>172600</v>
       </c>
       <c r="F60" s="3">
-        <v>119800</v>
+        <v>120100</v>
       </c>
       <c r="G60" s="3">
-        <v>109500</v>
+        <v>109800</v>
       </c>
       <c r="H60" s="3">
-        <v>97800</v>
+        <v>98000</v>
       </c>
       <c r="I60" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="J60" s="3">
-        <v>67700</v>
+        <v>67900</v>
       </c>
       <c r="K60" s="3">
         <v>52500</v>
@@ -2703,10 +2703,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="E61" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>304800</v>
+        <v>305500</v>
       </c>
       <c r="E62" s="3">
-        <v>147800</v>
+        <v>148100</v>
       </c>
       <c r="F62" s="3">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="G62" s="3">
-        <v>138300</v>
+        <v>138600</v>
       </c>
       <c r="H62" s="3">
-        <v>149300</v>
+        <v>149600</v>
       </c>
       <c r="I62" s="3">
-        <v>49600</v>
+        <v>49800</v>
       </c>
       <c r="J62" s="3">
-        <v>49200</v>
+        <v>49300</v>
       </c>
       <c r="K62" s="3">
         <v>37900</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>503100</v>
+        <v>504200</v>
       </c>
       <c r="E66" s="3">
-        <v>387100</v>
+        <v>387900</v>
       </c>
       <c r="F66" s="3">
-        <v>274400</v>
+        <v>275000</v>
       </c>
       <c r="G66" s="3">
-        <v>269400</v>
+        <v>270000</v>
       </c>
       <c r="H66" s="3">
-        <v>196900</v>
+        <v>197300</v>
       </c>
       <c r="I66" s="3">
-        <v>141100</v>
+        <v>141400</v>
       </c>
       <c r="J66" s="3">
-        <v>117000</v>
+        <v>117300</v>
       </c>
       <c r="K66" s="3">
         <v>90600</v>
@@ -3144,22 +3144,22 @@
         <v>-7700</v>
       </c>
       <c r="E72" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="F72" s="3">
-        <v>78500</v>
+        <v>78700</v>
       </c>
       <c r="G72" s="3">
-        <v>42500</v>
+        <v>42600</v>
       </c>
       <c r="H72" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="I72" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="J72" s="3">
-        <v>76700</v>
+        <v>76800</v>
       </c>
       <c r="K72" s="3">
         <v>44300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>199000</v>
+        <v>199400</v>
       </c>
       <c r="E76" s="3">
-        <v>256000</v>
+        <v>256500</v>
       </c>
       <c r="F76" s="3">
-        <v>289800</v>
+        <v>290400</v>
       </c>
       <c r="G76" s="3">
-        <v>256400</v>
+        <v>257000</v>
       </c>
       <c r="H76" s="3">
-        <v>227500</v>
+        <v>228000</v>
       </c>
       <c r="I76" s="3">
-        <v>100900</v>
+        <v>101100</v>
       </c>
       <c r="J76" s="3">
-        <v>141400</v>
+        <v>141700</v>
       </c>
       <c r="K76" s="3">
         <v>111500</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52700</v>
+        <v>-52800</v>
       </c>
       <c r="E81" s="3">
         <v>16200</v>
       </c>
       <c r="F81" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="G81" s="3">
-        <v>61000</v>
+        <v>61100</v>
       </c>
       <c r="H81" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="I81" s="3">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="J81" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="K81" s="3">
         <v>33900</v>
@@ -3500,7 +3500,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="E83" s="3">
         <v>13500</v>
@@ -3755,22 +3755,22 @@
         <v>40300</v>
       </c>
       <c r="E89" s="3">
-        <v>49700</v>
+        <v>49800</v>
       </c>
       <c r="F89" s="3">
-        <v>40700</v>
+        <v>40800</v>
       </c>
       <c r="G89" s="3">
-        <v>70800</v>
+        <v>71000</v>
       </c>
       <c r="H89" s="3">
-        <v>76500</v>
+        <v>76600</v>
       </c>
       <c r="I89" s="3">
-        <v>64700</v>
+        <v>64800</v>
       </c>
       <c r="J89" s="3">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="K89" s="3">
         <v>51300</v>
@@ -3815,13 +3815,13 @@
         <v>-9500</v>
       </c>
       <c r="E91" s="3">
-        <v>-77300</v>
+        <v>-77500</v>
       </c>
       <c r="F91" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="G91" s="3">
-        <v>-29400</v>
+        <v>-29500</v>
       </c>
       <c r="H91" s="3">
         <v>-19100</v>
@@ -3938,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>54900</v>
+        <v>55000</v>
       </c>
       <c r="E94" s="3">
-        <v>-127900</v>
+        <v>-128200</v>
       </c>
       <c r="F94" s="3">
         <v>-15400</v>
       </c>
       <c r="G94" s="3">
-        <v>-168100</v>
+        <v>-168500</v>
       </c>
       <c r="H94" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="I94" s="3">
-        <v>-102600</v>
+        <v>-102800</v>
       </c>
       <c r="J94" s="3">
         <v>10200</v>
@@ -3998,10 +3998,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="E96" s="3">
-        <v>-44100</v>
+        <v>-44200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>-31300</v>
       </c>
       <c r="H96" s="3">
-        <v>-27600</v>
+        <v>-27700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-47100</v>
+        <v>-47200</v>
       </c>
       <c r="E100" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="F100" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="G100" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="H100" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="I100" s="3">
-        <v>-88900</v>
+        <v>-89100</v>
       </c>
       <c r="J100" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="K100" s="3">
         <v>-7400</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48200</v>
+        <v>48300</v>
       </c>
       <c r="E102" s="3">
-        <v>-43100</v>
+        <v>-43200</v>
       </c>
       <c r="F102" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="G102" s="3">
-        <v>-127500</v>
+        <v>-127700</v>
       </c>
       <c r="H102" s="3">
-        <v>151900</v>
+        <v>152200</v>
       </c>
       <c r="I102" s="3">
-        <v>-127000</v>
+        <v>-127300</v>
       </c>
       <c r="J102" s="3">
-        <v>53900</v>
+        <v>54000</v>
       </c>
       <c r="K102" s="3">
         <v>17900</v>
